--- a/content/drafts/entitats/Codis_Territori_Paisos.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Paisos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\layatsal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\01.Cataleg_inicial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599B024B-583C-4D88-BFE2-D27661FEB99F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EB27B1-E008-41CE-8044-4FAC7A93D212}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-1668" windowWidth="23256" windowHeight="13176" xr2:uid="{2A9043EE-0398-4927-8C09-CA4E22432D8B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{2A9043EE-0398-4927-8C09-CA4E22432D8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Països" sheetId="1" r:id="rId1"/>
@@ -6917,7 +6917,7 @@
     <numFmt numFmtId="164" formatCode="000"/>
     <numFmt numFmtId="165" formatCode="00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6925,13 +6925,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -6959,7 +6980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6972,15 +6993,133 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -7293,125 +7432,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -7501,31 +7521,31 @@
     <tableColumn id="26" xr3:uid="{62AA031B-DD73-472A-8ED6-EB4710A68C12}" name="Identificador" dataDxfId="27"/>
     <tableColumn id="36" xr3:uid="{12979B42-6545-4461-B65B-3B3EFD903AA2}" name="Nom català" dataDxfId="26"/>
     <tableColumn id="30" xr3:uid="{08FAE73C-EE7B-424B-A2C1-7338FED0CEB0}" name="Nom Català Alternatiu" dataDxfId="25"/>
-    <tableColumn id="37" xr3:uid="{BB2A3AF4-E1DA-40F2-8B18-C01E946943BA}" name="Continent Codi" dataDxfId="24"/>
-    <tableColumn id="35" xr3:uid="{5B70F1A9-C0E0-4762-951B-EA69EFD3FE7E}" name="Continent Nom" dataDxfId="23"/>
-    <tableColumn id="34" xr3:uid="{DAB77F3A-ED29-42B2-A2DC-C909F398961B}" name="Subcontinent Codi" dataDxfId="22"/>
-    <tableColumn id="33" xr3:uid="{A0C09EDB-FF1E-4F74-BBFA-37AAF17CB723}" name="Subcontinent Nom" dataDxfId="21"/>
-    <tableColumn id="32" xr3:uid="{32EA7052-67B2-43AE-9AE5-F6A7025E7119}" name="Regió Codi" dataDxfId="20"/>
-    <tableColumn id="28" xr3:uid="{180EA13B-DA73-40F4-9936-4918669BB449}" name="Regió Nom" dataDxfId="19"/>
-    <tableColumn id="29" xr3:uid="{D5FEBA8C-F2CF-4FB8-B05F-5CFC2EBCA92F}" name="Codi INE (Numèric 3)" dataDxfId="18"/>
-    <tableColumn id="25" xr3:uid="{3CEC5F72-184E-4338-868F-F0BF1D3B151F}" name="Codi IDESCAT (Alfabètic 2)" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{78FC439F-2AB0-4C8D-98DE-04CE62E20D2D}" name="Codi ISO-3166 (Alfabètic 2)" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{761AA3C2-16FC-4AF6-B7A8-D757F73B0363}" name="Codi  ISO-3166 (Alfabètic 3)" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{94CB7527-33B7-491F-AFF8-45DC27D51D57}" name="Codi ISO-3166 (Numèric)" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{B7F158A4-8A49-4EAE-AA62-BD8BD305FD9A}" name="Codi ONU (Alfabètic 2)" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{E648C7CF-DCAB-4FB5-ADF0-6A488F614AA3}" name="Independent" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{29DB6B3F-AD51-43C8-B44B-DFF11CE09907}" name="Nom Castellà" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{D0B993F3-7657-4F08-A7D2-584ABE862C9F}" name="Nom Castellà Alternatiu" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{0F45D3A2-9B05-4117-9406-A55A1E7F0179}" name="Nom Anglès Curt" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{CCDB555C-5A2B-4607-911D-B6BD18E603F8}" name="Nom Anglès Curt Alternatiu" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{82982B25-F81F-4BDC-8B85-A1CBAC3BCC6E}" name="Nom Anglès Mig" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{F3A2E6E5-D7F6-4C42-AEF7-AEC64969724B}" name="Nom Anglès Mig Alternatiu" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{482C1BD1-1EA4-4BB8-B89A-013A6E59D421}" name="Nom Anglès Llarg" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{ACFB3880-A87C-4E4C-8CAE-FE6A39EE53F0}" name="Nom Anglès Llarg Alternatiu" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{94EBDFCC-F593-4185-A198-2E74380925CD}" name="Nom Local" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{C6DF7419-B21C-40A8-B691-89E712145AD6}" name="Nom Local Alternatiu 01" dataDxfId="2"/>
-    <tableColumn id="20" xr3:uid="{40E48E77-F7BA-4F05-AF31-A8CC1F735ADC}" name="Nom Local Alternatiu 02" dataDxfId="1"/>
-    <tableColumn id="21" xr3:uid="{4AEBAB5B-8095-4DF0-9AE0-8F13829AA39B}" name="Nom Local Alternatiu 03" dataDxfId="0"/>
+    <tableColumn id="37" xr3:uid="{BB2A3AF4-E1DA-40F2-8B18-C01E946943BA}" name="Continent Codi" dataDxfId="4"/>
+    <tableColumn id="35" xr3:uid="{5B70F1A9-C0E0-4762-951B-EA69EFD3FE7E}" name="Continent Nom" dataDxfId="2"/>
+    <tableColumn id="34" xr3:uid="{DAB77F3A-ED29-42B2-A2DC-C909F398961B}" name="Subcontinent Codi" dataDxfId="3"/>
+    <tableColumn id="33" xr3:uid="{A0C09EDB-FF1E-4F74-BBFA-37AAF17CB723}" name="Subcontinent Nom" dataDxfId="1"/>
+    <tableColumn id="32" xr3:uid="{32EA7052-67B2-43AE-9AE5-F6A7025E7119}" name="Regió Codi" dataDxfId="24"/>
+    <tableColumn id="28" xr3:uid="{180EA13B-DA73-40F4-9936-4918669BB449}" name="Regió Nom" dataDxfId="0"/>
+    <tableColumn id="29" xr3:uid="{D5FEBA8C-F2CF-4FB8-B05F-5CFC2EBCA92F}" name="Codi INE (Numèric 3)" dataDxfId="23"/>
+    <tableColumn id="25" xr3:uid="{3CEC5F72-184E-4338-868F-F0BF1D3B151F}" name="Codi IDESCAT (Alfabètic 2)" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{78FC439F-2AB0-4C8D-98DE-04CE62E20D2D}" name="Codi ISO-3166 (Alfabètic 2)" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{761AA3C2-16FC-4AF6-B7A8-D757F73B0363}" name="Codi  ISO-3166 (Alfabètic 3)" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{94CB7527-33B7-491F-AFF8-45DC27D51D57}" name="Codi ISO-3166 (Numèric)" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{B7F158A4-8A49-4EAE-AA62-BD8BD305FD9A}" name="Codi ONU (Alfabètic 2)" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{E648C7CF-DCAB-4FB5-ADF0-6A488F614AA3}" name="Independent" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{29DB6B3F-AD51-43C8-B44B-DFF11CE09907}" name="Nom Castellà" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{D0B993F3-7657-4F08-A7D2-584ABE862C9F}" name="Nom Castellà Alternatiu" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{0F45D3A2-9B05-4117-9406-A55A1E7F0179}" name="Nom Anglès Curt" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{CCDB555C-5A2B-4607-911D-B6BD18E603F8}" name="Nom Anglès Curt Alternatiu" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{82982B25-F81F-4BDC-8B85-A1CBAC3BCC6E}" name="Nom Anglès Mig" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{F3A2E6E5-D7F6-4C42-AEF7-AEC64969724B}" name="Nom Anglès Mig Alternatiu" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{482C1BD1-1EA4-4BB8-B89A-013A6E59D421}" name="Nom Anglès Llarg" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{ACFB3880-A87C-4E4C-8CAE-FE6A39EE53F0}" name="Nom Anglès Llarg Alternatiu" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{94EBDFCC-F593-4185-A198-2E74380925CD}" name="Nom Local" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{C6DF7419-B21C-40A8-B691-89E712145AD6}" name="Nom Local Alternatiu 01" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{40E48E77-F7BA-4F05-AF31-A8CC1F735ADC}" name="Nom Local Alternatiu 02" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{4AEBAB5B-8095-4DF0-9AE0-8F13829AA39B}" name="Nom Local Alternatiu 03" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7832,45 +7852,45 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="104.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="100.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="100.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="100.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="100.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="105.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="104.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="100.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="100.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="100.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="100.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="21.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="105.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="46.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="11.44140625" style="2"/>
+    <col min="34" max="34" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="46.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7878,7 +7898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -7891,19 +7911,19 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>2283</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="9" t="s">
         <v>2284</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -7964,7 +7984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -7974,19 +7994,19 @@
       <c r="D4" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="10" t="s">
         <v>857</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="10" t="s">
         <v>911</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -8026,7 +8046,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>113</v>
       </c>
@@ -8036,19 +8056,19 @@
       <c r="D5" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -8088,7 +8108,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>167</v>
       </c>
@@ -8098,19 +8118,19 @@
       <c r="D6" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="10" t="s">
         <v>1430</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -8150,7 +8170,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>307</v>
       </c>
@@ -8160,19 +8180,19 @@
       <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="10" t="s">
         <v>461</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="10" t="s">
         <v>463</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -8212,7 +8232,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>120</v>
       </c>
@@ -8222,19 +8242,19 @@
       <c r="D8" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="10" t="s">
         <v>1219</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -8260,7 +8280,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>462</v>
       </c>
@@ -8270,19 +8290,19 @@
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>2246</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>2246</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -8308,7 +8328,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>520</v>
       </c>
@@ -8318,19 +8338,19 @@
       <c r="D10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>2246</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>2246</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -8356,7 +8376,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>572</v>
       </c>
@@ -8366,19 +8386,19 @@
       <c r="D11" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>2246</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>2246</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -8404,7 +8424,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>619</v>
       </c>
@@ -8414,19 +8434,19 @@
       <c r="D12" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>2246</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>2246</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -8452,7 +8472,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>631</v>
       </c>
@@ -8462,19 +8482,19 @@
       <c r="D13" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>2246</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>2246</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -8500,7 +8520,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>649</v>
       </c>
@@ -8510,19 +8530,19 @@
       <c r="D14" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>2246</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>2246</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -8548,7 +8568,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>666</v>
       </c>
@@ -8558,19 +8578,19 @@
       <c r="D15" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>2246</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>2246</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -8596,7 +8616,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>686</v>
       </c>
@@ -8606,19 +8626,19 @@
       <c r="D16" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>2246</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>2246</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -8644,7 +8664,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>702</v>
       </c>
@@ -8654,19 +8674,19 @@
       <c r="D17" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>2246</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>2246</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -8692,7 +8712,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>720</v>
       </c>
@@ -8702,19 +8722,19 @@
       <c r="D18" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>2246</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>2246</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -8740,7 +8760,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>738</v>
       </c>
@@ -8750,19 +8770,19 @@
       <c r="D19" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -8802,7 +8822,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
@@ -8812,19 +8832,19 @@
       <c r="D20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="10" t="s">
         <v>32</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -8864,7 +8884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>768</v>
       </c>
@@ -8874,19 +8894,19 @@
       <c r="D21" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="10" t="s">
         <v>1797</v>
       </c>
       <c r="J21" s="2" t="s">
@@ -8923,7 +8943,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>770</v>
       </c>
@@ -8933,19 +8953,19 @@
       <c r="D22" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="10" t="s">
         <v>777</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="10" t="s">
         <v>778</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="10" t="s">
         <v>774</v>
       </c>
       <c r="K22" s="2" t="s">
@@ -8979,7 +8999,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>810</v>
       </c>
@@ -8989,19 +9009,19 @@
       <c r="D23" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="10" t="s">
         <v>1797</v>
       </c>
       <c r="J23" s="2" t="s">
@@ -9041,7 +9061,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>122</v>
       </c>
@@ -9051,19 +9071,19 @@
       <c r="D24" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="10" t="s">
         <v>2040</v>
       </c>
       <c r="J24" s="2" t="s">
@@ -9089,7 +9109,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>910</v>
       </c>
@@ -9099,19 +9119,19 @@
       <c r="D25" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="10" t="s">
         <v>1924</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="10" t="s">
         <v>2000</v>
       </c>
       <c r="J25" s="2" t="s">
@@ -9151,7 +9171,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>660</v>
       </c>
@@ -9161,19 +9181,19 @@
       <c r="D26" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="10" t="s">
         <v>630</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="10" t="s">
         <v>667</v>
       </c>
       <c r="J26" s="2" t="s">
@@ -9213,7 +9233,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>926</v>
       </c>
@@ -9223,19 +9243,19 @@
       <c r="D27" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="10" t="s">
         <v>935</v>
       </c>
       <c r="J27" s="2" t="s">
@@ -9275,7 +9295,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>1020</v>
       </c>
@@ -9285,19 +9305,19 @@
       <c r="D28" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="10" t="s">
         <v>1797</v>
       </c>
       <c r="J28" s="2" t="s">
@@ -9334,7 +9354,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>1109</v>
       </c>
@@ -9344,19 +9364,19 @@
       <c r="D29" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="10" t="s">
         <v>1156</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>1157</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="10" t="s">
         <v>1158</v>
       </c>
       <c r="J29" s="2" t="s">
@@ -9396,7 +9416,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>1134</v>
       </c>
@@ -9406,19 +9426,19 @@
       <c r="D30" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="10" t="s">
         <v>1430</v>
       </c>
       <c r="J30" s="2" t="s">
@@ -9458,7 +9478,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>1147</v>
       </c>
@@ -9468,19 +9488,19 @@
       <c r="D31" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="10" t="s">
         <v>1219</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -9506,7 +9526,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>1157</v>
       </c>
@@ -9516,19 +9536,19 @@
       <c r="D32" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="10" t="s">
         <v>1219</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="K32" s="2" t="s">
@@ -9554,7 +9574,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>1182</v>
       </c>
@@ -9564,19 +9584,19 @@
       <c r="D33" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="10" t="s">
         <v>1219</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="K33" s="2" t="s">
@@ -9602,7 +9622,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>1195</v>
       </c>
@@ -9612,19 +9632,19 @@
       <c r="D34" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>1184</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="10" t="s">
         <v>1213</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -9664,7 +9684,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>1184</v>
       </c>
@@ -9677,19 +9697,19 @@
       <c r="D35" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>1195</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="10" t="s">
         <v>758</v>
       </c>
       <c r="J35" s="2" t="s">
@@ -9732,7 +9752,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>1275</v>
       </c>
@@ -9742,19 +9762,19 @@
       <c r="D36" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="10" t="s">
         <v>1924</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="10" t="s">
         <v>2000</v>
       </c>
       <c r="J36" s="2" t="s">
@@ -9794,7 +9814,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>912</v>
       </c>
@@ -9804,19 +9824,19 @@
       <c r="D37" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="10" t="s">
         <v>857</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="10" t="s">
         <v>911</v>
       </c>
       <c r="J37" s="2" t="s">
@@ -9856,7 +9876,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>1504</v>
       </c>
@@ -9866,19 +9886,19 @@
       <c r="D38" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="10" t="s">
         <v>2040</v>
       </c>
       <c r="J38" s="2" t="s">
@@ -9918,7 +9938,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>1495</v>
       </c>
@@ -9928,19 +9948,19 @@
       <c r="D39" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>1504</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="10" t="s">
         <v>1505</v>
       </c>
       <c r="J39" s="2" t="s">
@@ -9980,7 +10000,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>1439</v>
       </c>
@@ -9990,19 +10010,19 @@
       <c r="D40" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="10" t="s">
         <v>1430</v>
       </c>
       <c r="J40" s="2" t="s">
@@ -10045,7 +10065,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>511</v>
       </c>
@@ -10055,19 +10075,19 @@
       <c r="D41" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="10" t="s">
         <v>519</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="10" t="s">
         <v>519</v>
       </c>
       <c r="J41" s="2" t="s">
@@ -10107,7 +10127,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>160</v>
       </c>
@@ -10117,19 +10137,19 @@
       <c r="D42" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="10" t="s">
         <v>168</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J42" s="2" t="s">
@@ -10169,7 +10189,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>564</v>
       </c>
@@ -10179,19 +10199,19 @@
       <c r="D43" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="10" t="s">
         <v>571</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="10" t="s">
         <v>571</v>
       </c>
       <c r="J43" s="2" t="s">
@@ -10228,7 +10248,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>918</v>
       </c>
@@ -10238,19 +10258,19 @@
       <c r="D44" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="10" t="s">
         <v>857</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="10" t="s">
         <v>911</v>
       </c>
       <c r="J44" s="2" t="s">
@@ -10290,7 +10310,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>621</v>
       </c>
@@ -10300,19 +10320,19 @@
       <c r="D45" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="10" t="s">
         <v>630</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="10" t="s">
         <v>632</v>
       </c>
       <c r="J45" s="2" t="s">
@@ -10355,7 +10375,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>1828</v>
       </c>
@@ -10365,19 +10385,19 @@
       <c r="D46" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" s="10" t="s">
         <v>2040</v>
       </c>
       <c r="J46" s="2" t="s">
@@ -10423,7 +10443,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>1282</v>
       </c>
@@ -10433,19 +10453,19 @@
       <c r="D47" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="J47" s="2" t="s">
@@ -10485,7 +10505,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>106</v>
       </c>
@@ -10495,19 +10515,19 @@
       <c r="D48" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="10" t="s">
         <v>114</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="10" t="s">
         <v>115</v>
       </c>
       <c r="J48" s="2" t="s">
@@ -10547,7 +10567,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>641</v>
       </c>
@@ -10557,19 +10577,19 @@
       <c r="D49" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="10" t="s">
         <v>630</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="10" t="s">
         <v>650</v>
       </c>
       <c r="J49" s="2" t="s">
@@ -10609,7 +10629,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>1011</v>
       </c>
@@ -10619,19 +10639,19 @@
       <c r="D50" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="10" t="s">
         <v>1021</v>
       </c>
       <c r="J50" s="2" t="s">
@@ -10671,7 +10691,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>1175</v>
       </c>
@@ -10681,19 +10701,19 @@
       <c r="D51" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>1182</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="10" t="s">
         <v>1183</v>
       </c>
       <c r="J51" s="2" t="s">
@@ -10733,7 +10753,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>170</v>
       </c>
@@ -10743,19 +10763,19 @@
       <c r="D52" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="10" t="s">
         <v>168</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J52" s="2" t="s">
@@ -10795,7 +10815,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>1778</v>
       </c>
@@ -10805,19 +10825,19 @@
       <c r="D53" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I53" s="10" t="s">
         <v>1784</v>
       </c>
       <c r="J53" s="2" t="s">
@@ -10857,7 +10877,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>1022</v>
       </c>
@@ -10867,19 +10887,19 @@
       <c r="D54" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I54" s="10" t="s">
         <v>1021</v>
       </c>
       <c r="J54" s="2" t="s">
@@ -10919,7 +10939,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>33</v>
       </c>
@@ -10929,19 +10949,19 @@
       <c r="D55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I55" s="10" t="s">
         <v>32</v>
       </c>
       <c r="J55" s="2" t="s">
@@ -10981,7 +11001,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>611</v>
       </c>
@@ -10991,19 +11011,19 @@
       <c r="D56" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="10" t="s">
         <v>571</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I56" s="10" t="s">
         <v>620</v>
       </c>
       <c r="J56" s="2" t="s">
@@ -11043,7 +11063,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>176</v>
       </c>
@@ -11053,19 +11073,19 @@
       <c r="D57" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="10" t="s">
         <v>168</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="I57" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J57" s="2" t="s">
@@ -11105,7 +11125,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>116</v>
       </c>
@@ -11115,19 +11135,19 @@
       <c r="D58" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="I58" s="10" t="s">
         <v>115</v>
       </c>
       <c r="K58" s="2" t="s">
@@ -11153,7 +11173,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>2054</v>
       </c>
@@ -11166,19 +11186,19 @@
       <c r="D59" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="I59" s="10" t="s">
         <v>2040</v>
       </c>
       <c r="J59" s="2" t="s">
@@ -11224,7 +11244,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>678</v>
       </c>
@@ -11234,19 +11254,19 @@
       <c r="D60" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="10" t="s">
         <v>630</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="I60" s="10" t="s">
         <v>687</v>
       </c>
       <c r="J60" s="2" t="s">
@@ -11286,7 +11306,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>299</v>
       </c>
@@ -11296,19 +11316,19 @@
       <c r="D61" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="I61" s="10" t="s">
         <v>309</v>
       </c>
       <c r="J61" s="2" t="s">
@@ -11348,7 +11368,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>42</v>
       </c>
@@ -11358,19 +11378,19 @@
       <c r="D62" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I62" s="10" t="s">
         <v>32</v>
       </c>
       <c r="J62" s="2" t="s">
@@ -11410,7 +11430,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>944</v>
       </c>
@@ -11420,19 +11440,19 @@
       <c r="D63" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="10" t="s">
         <v>954</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="I63" s="10" t="s">
         <v>955</v>
       </c>
       <c r="J63" s="2" t="s">
@@ -11472,7 +11492,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>956</v>
       </c>
@@ -11482,19 +11502,19 @@
       <c r="D64" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="10" t="s">
         <v>954</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I64" s="10" t="s">
         <v>955</v>
       </c>
       <c r="J64" s="2" t="s">
@@ -11534,7 +11554,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>185</v>
       </c>
@@ -11544,19 +11564,19 @@
       <c r="D65" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="10" t="s">
         <v>168</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="I65" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J65" s="2" t="s">
@@ -11605,7 +11625,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>521</v>
       </c>
@@ -11615,19 +11635,19 @@
       <c r="D66" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="10" t="s">
         <v>519</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="I66" s="10" t="s">
         <v>519</v>
       </c>
       <c r="J66" s="2" t="s">
@@ -11667,7 +11687,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>1291</v>
       </c>
@@ -11677,19 +11697,19 @@
       <c r="D67" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="I67" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="J67" s="2" t="s">
@@ -11729,7 +11749,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>1739</v>
       </c>
@@ -11739,19 +11759,19 @@
       <c r="D68" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G68" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="I68" s="10" t="s">
         <v>1746</v>
       </c>
       <c r="J68" s="2" t="s">
@@ -11791,7 +11811,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>2065</v>
       </c>
@@ -11801,19 +11821,19 @@
       <c r="D69" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="G69" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="I69" s="10" t="s">
         <v>2040</v>
       </c>
       <c r="J69" s="2" t="s">
@@ -11850,7 +11870,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>1581</v>
       </c>
@@ -11860,19 +11880,19 @@
       <c r="D70" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="I70" s="10" t="s">
         <v>1589</v>
       </c>
       <c r="J70" s="2" t="s">
@@ -11912,7 +11932,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>310</v>
       </c>
@@ -11922,19 +11942,19 @@
       <c r="D71" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="I71" s="10" t="s">
         <v>309</v>
       </c>
       <c r="J71" s="2" t="s">
@@ -11974,7 +11994,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>2071</v>
       </c>
@@ -11984,19 +12004,19 @@
       <c r="D72" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="I72" s="4" t="s">
+      <c r="I72" s="10" t="s">
         <v>2040</v>
       </c>
       <c r="J72" s="2" t="s">
@@ -12036,7 +12056,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>1906</v>
       </c>
@@ -12046,19 +12066,19 @@
       <c r="D73" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="G73" s="10" t="s">
         <v>461</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="I73" s="10" t="s">
         <v>1916</v>
       </c>
       <c r="J73" s="2" t="s">
@@ -12098,7 +12118,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>528</v>
       </c>
@@ -12108,19 +12128,19 @@
       <c r="D74" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G74" s="10" t="s">
         <v>519</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="I74" s="10" t="s">
         <v>519</v>
       </c>
       <c r="J74" s="2" t="s">
@@ -12160,7 +12180,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>2009</v>
       </c>
@@ -12170,19 +12190,19 @@
       <c r="D75" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="10" t="s">
         <v>1924</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="I75" s="10" t="s">
         <v>2000</v>
       </c>
       <c r="J75" s="2" t="s">
@@ -12222,7 +12242,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>688</v>
       </c>
@@ -12232,19 +12252,19 @@
       <c r="D76" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="10" t="s">
         <v>630</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="I76" s="10" t="s">
         <v>687</v>
       </c>
       <c r="J76" s="2" t="s">
@@ -12284,7 +12304,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>317</v>
       </c>
@@ -12294,19 +12314,19 @@
       <c r="D77" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I77" s="4" t="s">
+      <c r="I77" s="10" t="s">
         <v>309</v>
       </c>
       <c r="J77" s="2" t="s">
@@ -12346,7 +12366,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>1506</v>
       </c>
@@ -12359,19 +12379,19 @@
       <c r="D78" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>1504</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="I78" s="10" t="s">
         <v>1505</v>
       </c>
       <c r="J78" s="2" t="s">
@@ -12414,7 +12434,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>1301</v>
       </c>
@@ -12424,19 +12444,19 @@
       <c r="D79" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="G79" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="I79" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="J79" s="2" t="s">
@@ -12476,7 +12496,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>1311</v>
       </c>
@@ -12486,19 +12506,19 @@
       <c r="D80" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="I80" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="J80" s="2" t="s">
@@ -12538,7 +12558,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>573</v>
       </c>
@@ -12551,19 +12571,19 @@
       <c r="D81" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="G81" s="10" t="s">
         <v>571</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="I81" s="10" t="s">
         <v>571</v>
       </c>
       <c r="J81" s="2" t="s">
@@ -12606,7 +12626,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>1590</v>
       </c>
@@ -12616,19 +12636,19 @@
       <c r="D82" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G82" s="8" t="s">
+      <c r="G82" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="I82" s="10" t="s">
         <v>1589</v>
       </c>
       <c r="J82" s="2" t="s">
@@ -12668,7 +12688,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>324</v>
       </c>
@@ -12678,19 +12698,19 @@
       <c r="D83" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="G83" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I83" s="4" t="s">
+      <c r="I83" s="10" t="s">
         <v>309</v>
       </c>
       <c r="J83" s="2" t="s">
@@ -12730,7 +12750,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>1598</v>
       </c>
@@ -12740,19 +12760,19 @@
       <c r="D84" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="I84" s="10" t="s">
         <v>1589</v>
       </c>
       <c r="J84" s="2" t="s">
@@ -12789,7 +12809,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>1822</v>
       </c>
@@ -12799,19 +12819,19 @@
       <c r="D85" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="G85" s="10" t="s">
         <v>1133</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>1828</v>
       </c>
-      <c r="I85" s="4" t="s">
+      <c r="I85" s="10" t="s">
         <v>1829</v>
       </c>
       <c r="J85" s="2" t="s">
@@ -12851,7 +12871,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>1031</v>
       </c>
@@ -12861,19 +12881,19 @@
       <c r="D86" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G86" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="I86" s="10" t="s">
         <v>1021</v>
       </c>
       <c r="J86" s="2" t="s">
@@ -12913,7 +12933,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>1606</v>
       </c>
@@ -12923,19 +12943,19 @@
       <c r="D87" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G87" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="I87" s="4" t="s">
+      <c r="I87" s="10" t="s">
         <v>1589</v>
       </c>
       <c r="J87" s="2" t="s">
@@ -12975,7 +12995,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>1450</v>
       </c>
@@ -12985,19 +13005,19 @@
       <c r="D88" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G88" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="I88" s="4" t="s">
+      <c r="I88" s="10" t="s">
         <v>1430</v>
       </c>
       <c r="J88" s="2" t="s">
@@ -13037,7 +13057,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>51</v>
       </c>
@@ -13047,19 +13067,19 @@
       <c r="D89" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G89" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I89" s="10" t="s">
         <v>32</v>
       </c>
       <c r="J89" s="2" t="s">
@@ -13099,7 +13119,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>196</v>
       </c>
@@ -13109,19 +13129,19 @@
       <c r="D90" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G90" s="10" t="s">
         <v>168</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I90" s="4" t="s">
+      <c r="I90" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J90" s="2" t="s">
@@ -13161,7 +13181,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>936</v>
       </c>
@@ -13171,19 +13191,19 @@
       <c r="D91" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G91" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="I91" s="10" t="s">
         <v>935</v>
       </c>
       <c r="J91" s="2" t="s">
@@ -13223,7 +13243,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>205</v>
       </c>
@@ -13233,19 +13253,19 @@
       <c r="D92" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="G92" s="10" t="s">
         <v>168</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I92" s="4" t="s">
+      <c r="I92" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J92" s="2" t="s">
@@ -13285,7 +13305,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>1320</v>
       </c>
@@ -13295,19 +13315,19 @@
       <c r="D93" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="I93" s="4" t="s">
+      <c r="I93" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="J93" s="2" t="s">
@@ -13344,7 +13364,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>1325</v>
       </c>
@@ -13354,19 +13374,19 @@
       <c r="D94" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G94" s="8" t="s">
+      <c r="G94" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="I94" s="4" t="s">
+      <c r="I94" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="J94" s="2" t="s">
@@ -13409,7 +13429,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>2076</v>
       </c>
@@ -13419,19 +13439,19 @@
       <c r="D95" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="G95" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="I95" s="4" t="s">
+      <c r="I95" s="10" t="s">
         <v>2040</v>
       </c>
       <c r="J95" s="2" t="s">
@@ -13471,7 +13491,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>584</v>
       </c>
@@ -13481,19 +13501,19 @@
       <c r="D96" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="G96" s="8" t="s">
+      <c r="G96" s="10" t="s">
         <v>571</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="I96" s="4" t="s">
+      <c r="I96" s="10" t="s">
         <v>571</v>
       </c>
       <c r="J96" s="2" t="s">
@@ -13530,7 +13550,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>2083</v>
       </c>
@@ -13540,19 +13560,19 @@
       <c r="D97" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="I97" s="4" t="s">
+      <c r="I97" s="10" t="s">
         <v>2040</v>
       </c>
       <c r="J97" s="2" t="s">
@@ -13586,7 +13606,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>730</v>
       </c>
@@ -13596,19 +13616,19 @@
       <c r="D98" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G98" s="8" t="s">
+      <c r="G98" s="10" t="s">
         <v>630</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="I98" s="4" t="s">
+      <c r="I98" s="10" t="s">
         <v>739</v>
       </c>
       <c r="J98" s="2" t="s">
@@ -13642,7 +13662,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>1854</v>
       </c>
@@ -13652,19 +13672,19 @@
       <c r="D99" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="G99" s="8" t="s">
+      <c r="G99" s="10" t="s">
         <v>1859</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>1282</v>
       </c>
-      <c r="I99" s="4" t="s">
+      <c r="I99" s="10" t="s">
         <v>1860</v>
       </c>
       <c r="J99" s="2" t="s">
@@ -13701,7 +13721,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>534</v>
       </c>
@@ -13711,19 +13731,19 @@
       <c r="D100" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E100" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="G100" s="10" t="s">
         <v>519</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="I100" s="4" t="s">
+      <c r="I100" s="10" t="s">
         <v>519</v>
       </c>
       <c r="J100" s="2" t="s">
@@ -13763,7 +13783,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>1615</v>
       </c>
@@ -13773,19 +13793,19 @@
       <c r="D101" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E101" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="G101" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="I101" s="4" t="s">
+      <c r="I101" s="10" t="s">
         <v>1589</v>
       </c>
       <c r="J101" s="2" t="s">
@@ -13819,7 +13839,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>212</v>
       </c>
@@ -13829,19 +13849,19 @@
       <c r="D102" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E102" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G102" s="8" t="s">
+      <c r="G102" s="10" t="s">
         <v>168</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I102" s="4" t="s">
+      <c r="I102" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J102" s="2" t="s">
@@ -13881,7 +13901,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>59</v>
       </c>
@@ -13891,19 +13911,19 @@
       <c r="D103" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G103" s="8" t="s">
+      <c r="G103" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I103" s="4" t="s">
+      <c r="I103" s="10" t="s">
         <v>32</v>
       </c>
       <c r="J103" s="2" t="s">
@@ -13943,7 +13963,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>220</v>
       </c>
@@ -13953,19 +13973,19 @@
       <c r="D104" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="G104" s="10" t="s">
         <v>168</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I104" s="4" t="s">
+      <c r="I104" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J104" s="2" t="s">
@@ -14005,7 +14025,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>695</v>
       </c>
@@ -14015,19 +14035,19 @@
       <c r="D105" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="E105" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G105" s="10" t="s">
         <v>630</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="I105" s="4" t="s">
+      <c r="I105" s="10" t="s">
         <v>703</v>
       </c>
       <c r="J105" s="2" t="s">
@@ -14067,7 +14087,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>1747</v>
       </c>
@@ -14077,19 +14097,19 @@
       <c r="D106" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E106" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G106" s="8" t="s">
+      <c r="G106" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I106" s="4" t="s">
+      <c r="I106" s="10" t="s">
         <v>1746</v>
       </c>
       <c r="J106" s="2" t="s">
@@ -14129,7 +14149,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>541</v>
       </c>
@@ -14139,19 +14159,19 @@
       <c r="D107" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E107" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="G107" s="8" t="s">
+      <c r="G107" s="10" t="s">
         <v>519</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="I107" s="4" t="s">
+      <c r="I107" s="10" t="s">
         <v>519</v>
       </c>
       <c r="J107" s="2" t="s">
@@ -14191,7 +14211,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>964</v>
       </c>
@@ -14201,19 +14221,19 @@
       <c r="D108" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E108" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="G108" s="8" t="s">
+      <c r="G108" s="10" t="s">
         <v>954</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="I108" s="4" t="s">
+      <c r="I108" s="10" t="s">
         <v>955</v>
       </c>
       <c r="J108" s="2" t="s">
@@ -14250,7 +14270,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>1516</v>
       </c>
@@ -14260,19 +14280,19 @@
       <c r="D109" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G109" s="8" t="s">
+      <c r="G109" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>1504</v>
       </c>
-      <c r="I109" s="4" t="s">
+      <c r="I109" s="10" t="s">
         <v>1505</v>
       </c>
       <c r="J109" s="2" t="s">
@@ -14312,7 +14332,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>2017</v>
       </c>
@@ -14325,19 +14345,19 @@
       <c r="D110" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="E110" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="G110" s="8" t="s">
+      <c r="G110" s="10" t="s">
         <v>1924</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="I110" s="4" t="s">
+      <c r="I110" s="10" t="s">
         <v>2000</v>
       </c>
       <c r="J110" s="2" t="s">
@@ -14380,7 +14400,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>779</v>
       </c>
@@ -14390,19 +14410,19 @@
       <c r="D111" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="E111" s="10" t="s">
         <v>777</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="G111" s="8" t="s">
+      <c r="G111" s="10" t="s">
         <v>778</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="I111" s="4" t="s">
+      <c r="I111" s="10" t="s">
         <v>774</v>
       </c>
       <c r="K111" s="2" t="s">
@@ -14436,7 +14456,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>1041</v>
       </c>
@@ -14446,19 +14466,19 @@
       <c r="D112" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="E112" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="G112" s="8" t="s">
+      <c r="G112" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="H112" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="I112" s="4" t="s">
+      <c r="I112" s="10" t="s">
         <v>1021</v>
       </c>
       <c r="K112" s="2" t="s">
@@ -14492,7 +14512,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>1621</v>
       </c>
@@ -14502,19 +14522,19 @@
       <c r="D113" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="E113" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G113" s="8" t="s">
+      <c r="G113" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="I113" s="4" t="s">
+      <c r="I113" s="10" t="s">
         <v>1589</v>
       </c>
       <c r="J113" s="2" t="s">
@@ -14548,7 +14568,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>1159</v>
       </c>
@@ -14558,19 +14578,19 @@
       <c r="D114" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E114" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="G114" s="8" t="s">
+      <c r="G114" s="10" t="s">
         <v>1156</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>1157</v>
       </c>
-      <c r="I114" s="4" t="s">
+      <c r="I114" s="10" t="s">
         <v>1158</v>
       </c>
       <c r="J114" s="2" t="s">
@@ -14607,7 +14627,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>1629</v>
       </c>
@@ -14620,19 +14640,19 @@
       <c r="D115" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E115" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G115" s="8" t="s">
+      <c r="G115" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H115" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="I115" s="4" t="s">
+      <c r="I115" s="10" t="s">
         <v>1589</v>
       </c>
       <c r="J115" s="2" t="s">
@@ -14669,7 +14689,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>1754</v>
       </c>
@@ -14679,19 +14699,19 @@
       <c r="D116" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E116" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G116" s="8" t="s">
+      <c r="G116" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I116" s="4" t="s">
+      <c r="I116" s="10" t="s">
         <v>1746</v>
       </c>
       <c r="J116" s="2" t="s">
@@ -14728,7 +14748,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>1136</v>
       </c>
@@ -14741,19 +14761,19 @@
       <c r="D117" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E117" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="G117" s="8" t="s">
+      <c r="G117" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>1147</v>
       </c>
-      <c r="I117" s="4" t="s">
+      <c r="I117" s="10" t="s">
         <v>1148</v>
       </c>
       <c r="K117" s="2" t="s">
@@ -14802,7 +14822,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>2163</v>
       </c>
@@ -14812,19 +14832,19 @@
       <c r="D118" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="E118" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="G118" s="8" t="s">
+      <c r="G118" s="10" t="s">
         <v>2171</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I118" s="4" t="s">
+      <c r="I118" s="10" t="s">
         <v>2172</v>
       </c>
       <c r="J118" s="2" t="s">
@@ -14861,7 +14881,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>1638</v>
       </c>
@@ -14871,19 +14891,19 @@
       <c r="D119" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E119" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G119" s="8" t="s">
+      <c r="G119" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H119" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="I119" s="4" t="s">
+      <c r="I119" s="10" t="s">
         <v>1589</v>
       </c>
       <c r="J119" s="2" t="s">
@@ -14909,7 +14929,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
         <v>668</v>
       </c>
@@ -14922,19 +14942,19 @@
       <c r="D120" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E120" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G120" s="8" t="s">
+      <c r="G120" s="10" t="s">
         <v>630</v>
       </c>
       <c r="H120" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="I120" s="4" t="s">
+      <c r="I120" s="10" t="s">
         <v>667</v>
       </c>
       <c r="J120" s="2" t="s">
@@ -14983,7 +15003,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>786</v>
       </c>
@@ -14993,19 +15013,19 @@
       <c r="D121" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="E121" s="10" t="s">
         <v>777</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="G121" s="8" t="s">
+      <c r="G121" s="10" t="s">
         <v>778</v>
       </c>
       <c r="H121" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="I121" s="4" t="s">
+      <c r="I121" s="10" t="s">
         <v>774</v>
       </c>
       <c r="K121" s="2" t="s">
@@ -15039,7 +15059,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>792</v>
       </c>
@@ -15049,19 +15069,19 @@
       <c r="D122" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="E122" s="10" t="s">
         <v>777</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="G122" s="8" t="s">
+      <c r="G122" s="10" t="s">
         <v>778</v>
       </c>
       <c r="H122" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="I122" s="4" t="s">
+      <c r="I122" s="10" t="s">
         <v>774</v>
       </c>
       <c r="K122" s="2" t="s">
@@ -15095,7 +15115,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>2234</v>
       </c>
@@ -15105,19 +15125,19 @@
       <c r="D123" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E123" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="G123" s="8" t="s">
+      <c r="G123" s="10" t="s">
         <v>1859</v>
       </c>
       <c r="H123" s="4" t="s">
         <v>1282</v>
       </c>
-      <c r="I123" s="4" t="s">
+      <c r="I123" s="10" t="s">
         <v>1860</v>
       </c>
       <c r="J123" s="2" t="s">
@@ -15154,7 +15174,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>1861</v>
       </c>
@@ -15164,19 +15184,19 @@
       <c r="D124" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="E124" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="G124" s="8" t="s">
+      <c r="G124" s="10" t="s">
         <v>1859</v>
       </c>
       <c r="H124" s="4" t="s">
         <v>1282</v>
       </c>
-      <c r="I124" s="4" t="s">
+      <c r="I124" s="10" t="s">
         <v>1860</v>
       </c>
       <c r="J124" s="2" t="s">
@@ -15216,7 +15236,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>1869</v>
       </c>
@@ -15226,19 +15246,19 @@
       <c r="D125" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E125" s="4" t="s">
+      <c r="E125" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="G125" s="8" t="s">
+      <c r="G125" s="10" t="s">
         <v>1859</v>
       </c>
       <c r="H125" s="4" t="s">
         <v>1282</v>
       </c>
-      <c r="I125" s="4" t="s">
+      <c r="I125" s="10" t="s">
         <v>1860</v>
       </c>
       <c r="K125" s="2" t="s">
@@ -15272,7 +15292,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
         <v>1830</v>
       </c>
@@ -15282,19 +15302,19 @@
       <c r="D126" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E126" s="4" t="s">
+      <c r="E126" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="G126" s="8" t="s">
+      <c r="G126" s="10" t="s">
         <v>1133</v>
       </c>
       <c r="H126" s="4" t="s">
         <v>1828</v>
       </c>
-      <c r="I126" s="4" t="s">
+      <c r="I126" s="10" t="s">
         <v>1829</v>
       </c>
       <c r="J126" s="2" t="s">
@@ -15334,7 +15354,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
         <v>1196</v>
       </c>
@@ -15344,19 +15364,19 @@
       <c r="D127" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E127" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G127" s="8" t="s">
+      <c r="G127" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H127" s="4" t="s">
         <v>1195</v>
       </c>
-      <c r="I127" s="4" t="s">
+      <c r="I127" s="10" t="s">
         <v>758</v>
       </c>
       <c r="J127" s="2" t="s">
@@ -15393,7 +15413,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
         <v>2089</v>
       </c>
@@ -15403,19 +15423,19 @@
       <c r="D128" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="E128" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G128" s="8" t="s">
+      <c r="G128" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H128" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="I128" s="4" t="s">
+      <c r="I128" s="10" t="s">
         <v>2040</v>
       </c>
       <c r="J128" s="2" t="s">
@@ -15452,7 +15472,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>2098</v>
       </c>
@@ -15462,19 +15482,19 @@
       <c r="D129" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E129" s="4" t="s">
+      <c r="E129" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G129" s="8" t="s">
+      <c r="G129" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H129" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="I129" s="4" t="s">
+      <c r="I129" s="10" t="s">
         <v>2040</v>
       </c>
       <c r="J129" s="2" t="s">
@@ -15511,7 +15531,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
         <v>848</v>
       </c>
@@ -15521,19 +15541,19 @@
       <c r="D130" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="E130" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="G130" s="8" t="s">
+      <c r="G130" s="10" t="s">
         <v>857</v>
       </c>
       <c r="H130" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I130" s="4" t="s">
+      <c r="I130" s="10" t="s">
         <v>858</v>
       </c>
       <c r="J130" s="2" t="s">
@@ -15573,7 +15593,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
         <v>1101</v>
       </c>
@@ -15583,19 +15603,19 @@
       <c r="D131" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="E131" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="G131" s="8" t="s">
+      <c r="G131" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="H131" s="4" t="s">
         <v>1109</v>
       </c>
-      <c r="I131" s="4" t="s">
+      <c r="I131" s="10" t="s">
         <v>1110</v>
       </c>
       <c r="J131" s="2" t="s">
@@ -15635,7 +15655,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
         <v>859</v>
       </c>
@@ -15645,19 +15665,19 @@
       <c r="D132" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="E132" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="G132" s="8" t="s">
+      <c r="G132" s="10" t="s">
         <v>857</v>
       </c>
       <c r="H132" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I132" s="4" t="s">
+      <c r="I132" s="10" t="s">
         <v>858</v>
       </c>
       <c r="J132" s="2" t="s">
@@ -15697,7 +15717,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
         <v>1917</v>
       </c>
@@ -15707,19 +15727,19 @@
       <c r="D133" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="E133" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="G133" s="8" t="s">
+      <c r="G133" s="10" t="s">
         <v>1924</v>
       </c>
       <c r="H133" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="I133" s="4" t="s">
+      <c r="I133" s="10" t="s">
         <v>1925</v>
       </c>
       <c r="J133" s="2" t="s">
@@ -15759,7 +15779,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
         <v>1642</v>
       </c>
@@ -15769,19 +15789,19 @@
       <c r="D134" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E134" s="4" t="s">
+      <c r="E134" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G134" s="8" t="s">
+      <c r="G134" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H134" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="I134" s="4" t="s">
+      <c r="I134" s="10" t="s">
         <v>1589</v>
       </c>
       <c r="J134" s="2" t="s">
@@ -15821,7 +15841,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
         <v>1651</v>
       </c>
@@ -15831,19 +15851,19 @@
       <c r="D135" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E135" s="4" t="s">
+      <c r="E135" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G135" s="8" t="s">
+      <c r="G135" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H135" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="I135" s="4" t="s">
+      <c r="I135" s="10" t="s">
         <v>1589</v>
       </c>
       <c r="J135" s="2" t="s">
@@ -15883,7 +15903,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
         <v>1926</v>
       </c>
@@ -15893,19 +15913,19 @@
       <c r="D136" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E136" s="4" t="s">
+      <c r="E136" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="G136" s="8" t="s">
+      <c r="G136" s="10" t="s">
         <v>1924</v>
       </c>
       <c r="H136" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="I136" s="4" t="s">
+      <c r="I136" s="10" t="s">
         <v>1925</v>
       </c>
       <c r="J136" s="2" t="s">
@@ -15945,7 +15965,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
         <v>1336</v>
       </c>
@@ -15955,19 +15975,19 @@
       <c r="D137" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E137" s="4" t="s">
+      <c r="E137" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G137" s="8" t="s">
+      <c r="G137" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="I137" s="4" t="s">
+      <c r="I137" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="J137" s="2" t="s">
@@ -16007,7 +16027,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
         <v>1760</v>
       </c>
@@ -16017,19 +16037,19 @@
       <c r="D138" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E138" s="4" t="s">
+      <c r="E138" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G138" s="8" t="s">
+      <c r="G138" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I138" s="4" t="s">
+      <c r="I138" s="10" t="s">
         <v>1746</v>
       </c>
       <c r="J138" s="2" t="s">
@@ -16069,7 +16089,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
         <v>969</v>
       </c>
@@ -16079,19 +16099,19 @@
       <c r="D139" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E139" s="4" t="s">
+      <c r="E139" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="G139" s="8" t="s">
+      <c r="G139" s="10" t="s">
         <v>954</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="I139" s="4" t="s">
+      <c r="I139" s="10" t="s">
         <v>955</v>
       </c>
       <c r="J139" s="2" t="s">
@@ -16131,7 +16151,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
         <v>1661</v>
       </c>
@@ -16141,19 +16161,19 @@
       <c r="D140" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E140" s="4" t="s">
+      <c r="E140" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G140" s="8" t="s">
+      <c r="G140" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H140" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="I140" s="4" t="s">
+      <c r="I140" s="10" t="s">
         <v>1589</v>
       </c>
       <c r="J140" s="2" t="s">
@@ -16187,7 +16207,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
         <v>1934</v>
       </c>
@@ -16197,19 +16217,19 @@
       <c r="D141" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E141" s="4" t="s">
+      <c r="E141" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="G141" s="8" t="s">
+      <c r="G141" s="10" t="s">
         <v>1924</v>
       </c>
       <c r="H141" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="I141" s="4" t="s">
+      <c r="I141" s="10" t="s">
         <v>1925</v>
       </c>
       <c r="J141" s="2" t="s">
@@ -16249,7 +16269,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
         <v>799</v>
       </c>
@@ -16259,19 +16279,19 @@
       <c r="D142" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E142" s="4" t="s">
+      <c r="E142" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="G142" s="8" t="s">
+      <c r="G142" s="10" t="s">
         <v>809</v>
       </c>
       <c r="H142" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="I142" s="4" t="s">
+      <c r="I142" s="10" t="s">
         <v>811</v>
       </c>
       <c r="J142" s="2" t="s">
@@ -16311,7 +16331,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
         <v>334</v>
       </c>
@@ -16321,19 +16341,19 @@
       <c r="D143" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="E143" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G143" s="8" t="s">
+      <c r="G143" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I143" s="4" t="s">
+      <c r="I143" s="10" t="s">
         <v>309</v>
       </c>
       <c r="J143" s="2" t="s">
@@ -16373,7 +16393,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
         <v>812</v>
       </c>
@@ -16383,19 +16403,19 @@
       <c r="D144" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E144" s="4" t="s">
+      <c r="E144" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="G144" s="8" t="s">
+      <c r="G144" s="10" t="s">
         <v>809</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="I144" s="4" t="s">
+      <c r="I144" s="10" t="s">
         <v>811</v>
       </c>
       <c r="J144" s="2" t="s">
@@ -16435,7 +16455,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>1876</v>
       </c>
@@ -16445,19 +16465,19 @@
       <c r="D145" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E145" s="4" t="s">
+      <c r="E145" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="G145" s="8" t="s">
+      <c r="G145" s="10" t="s">
         <v>1859</v>
       </c>
       <c r="H145" s="4" t="s">
         <v>1282</v>
       </c>
-      <c r="I145" s="4" t="s">
+      <c r="I145" s="10" t="s">
         <v>1860</v>
       </c>
       <c r="J145" s="2" t="s">
@@ -16500,7 +16520,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
         <v>1345</v>
       </c>
@@ -16510,19 +16530,19 @@
       <c r="D146" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E146" s="4" t="s">
+      <c r="E146" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F146" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G146" s="8" t="s">
+      <c r="G146" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="I146" s="4" t="s">
+      <c r="I146" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="K146" s="2" t="s">
@@ -16557,7 +16577,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>1944</v>
       </c>
@@ -16567,19 +16587,19 @@
       <c r="D147" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E147" s="4" t="s">
+      <c r="E147" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F147" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="G147" s="8" t="s">
+      <c r="G147" s="10" t="s">
         <v>1924</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="I147" s="4" t="s">
+      <c r="I147" s="10" t="s">
         <v>1925</v>
       </c>
       <c r="J147" s="2" t="s">
@@ -16619,7 +16639,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
         <v>1048</v>
       </c>
@@ -16629,19 +16649,19 @@
       <c r="D148" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E148" s="4" t="s">
+      <c r="E148" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="G148" s="8" t="s">
+      <c r="G148" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="I148" s="4" t="s">
+      <c r="I148" s="10" t="s">
         <v>1021</v>
       </c>
       <c r="J148" s="2" t="s">
@@ -16681,7 +16701,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>124</v>
       </c>
@@ -16691,19 +16711,19 @@
       <c r="D149" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E149" s="4" t="s">
+      <c r="E149" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F149" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G149" s="8" t="s">
+      <c r="G149" s="10" t="s">
         <v>114</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I149" s="4" t="s">
+      <c r="I149" s="10" t="s">
         <v>115</v>
       </c>
       <c r="J149" s="2" t="s">
@@ -16743,7 +16763,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>1668</v>
       </c>
@@ -16753,19 +16773,19 @@
       <c r="D150" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E150" s="4" t="s">
+      <c r="E150" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F150" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G150" s="8" t="s">
+      <c r="G150" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="I150" s="4" t="s">
+      <c r="I150" s="10" t="s">
         <v>1589</v>
       </c>
       <c r="J150" s="2" t="s">
@@ -16805,7 +16825,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>1950</v>
       </c>
@@ -16815,19 +16835,19 @@
       <c r="D151" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E151" s="4" t="s">
+      <c r="E151" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="G151" s="8" t="s">
+      <c r="G151" s="10" t="s">
         <v>1924</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="I151" s="4" t="s">
+      <c r="I151" s="10" t="s">
         <v>1925</v>
       </c>
       <c r="J151" s="2" t="s">
@@ -16867,7 +16887,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
         <v>228</v>
       </c>
@@ -16877,19 +16897,19 @@
       <c r="D152" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E152" s="4" t="s">
+      <c r="E152" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G152" s="8" t="s">
+      <c r="G152" s="10" t="s">
         <v>168</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I152" s="4" t="s">
+      <c r="I152" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J152" s="2" t="s">
@@ -16929,7 +16949,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>464</v>
       </c>
@@ -16939,19 +16959,19 @@
       <c r="D153" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E153" s="4" t="s">
+      <c r="E153" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G153" s="8" t="s">
+      <c r="G153" s="10" t="s">
         <v>461</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="I153" s="4" t="s">
+      <c r="I153" s="10" t="s">
         <v>463</v>
       </c>
       <c r="J153" s="2" t="s">
@@ -16991,7 +17011,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
         <v>1458</v>
       </c>
@@ -17001,19 +17021,19 @@
       <c r="D154" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E154" s="4" t="s">
+      <c r="E154" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F154" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G154" s="8" t="s">
+      <c r="G154" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H154" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="I154" s="4" t="s">
+      <c r="I154" s="10" t="s">
         <v>1430</v>
       </c>
       <c r="J154" s="2" t="s">
@@ -17053,7 +17073,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>1678</v>
       </c>
@@ -17063,19 +17083,19 @@
       <c r="D155" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E155" s="4" t="s">
+      <c r="E155" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G155" s="8" t="s">
+      <c r="G155" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H155" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="I155" s="4" t="s">
+      <c r="I155" s="10" t="s">
         <v>1589</v>
       </c>
       <c r="J155" s="2" t="s">
@@ -17115,7 +17135,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
         <v>1463</v>
       </c>
@@ -17125,19 +17145,19 @@
       <c r="D156" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E156" s="4" t="s">
+      <c r="E156" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F156" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G156" s="8" t="s">
+      <c r="G156" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="I156" s="4" t="s">
+      <c r="I156" s="10" t="s">
         <v>1430</v>
       </c>
       <c r="J156" s="2" t="s">
@@ -17180,7 +17200,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>978</v>
       </c>
@@ -17190,19 +17210,19 @@
       <c r="D157" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E157" s="4" t="s">
+      <c r="E157" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F157" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="G157" s="8" t="s">
+      <c r="G157" s="10" t="s">
         <v>954</v>
       </c>
       <c r="H157" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="I157" s="4" t="s">
+      <c r="I157" s="10" t="s">
         <v>955</v>
       </c>
       <c r="J157" s="2" t="s">
@@ -17239,7 +17259,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
         <v>1351</v>
       </c>
@@ -17249,19 +17269,19 @@
       <c r="D158" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E158" s="4" t="s">
+      <c r="E158" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G158" s="8" t="s">
+      <c r="G158" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H158" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="I158" s="4" t="s">
+      <c r="I158" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="J158" s="2" t="s">
@@ -17301,7 +17321,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
         <v>342</v>
       </c>
@@ -17311,19 +17331,19 @@
       <c r="D159" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E159" s="4" t="s">
+      <c r="E159" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F159" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G159" s="8" t="s">
+      <c r="G159" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H159" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I159" s="4" t="s">
+      <c r="I159" s="10" t="s">
         <v>309</v>
       </c>
       <c r="J159" s="2" t="s">
@@ -17363,7 +17383,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
         <v>1057</v>
       </c>
@@ -17373,19 +17393,19 @@
       <c r="D160" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E160" s="4" t="s">
+      <c r="E160" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F160" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="G160" s="8" t="s">
+      <c r="G160" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="H160" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="I160" s="4" t="s">
+      <c r="I160" s="10" t="s">
         <v>1021</v>
       </c>
       <c r="J160" s="2" t="s">
@@ -17425,7 +17445,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
         <v>349</v>
       </c>
@@ -17435,19 +17455,19 @@
       <c r="D161" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E161" s="4" t="s">
+      <c r="E161" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F161" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G161" s="8" t="s">
+      <c r="G161" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H161" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I161" s="4" t="s">
+      <c r="I161" s="10" t="s">
         <v>309</v>
       </c>
       <c r="J161" s="2" t="s">
@@ -17487,7 +17507,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
         <v>867</v>
       </c>
@@ -17497,19 +17517,19 @@
       <c r="D162" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E162" s="4" t="s">
+      <c r="E162" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F162" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="G162" s="8" t="s">
+      <c r="G162" s="10" t="s">
         <v>857</v>
       </c>
       <c r="H162" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I162" s="4" t="s">
+      <c r="I162" s="10" t="s">
         <v>858</v>
       </c>
       <c r="J162" s="2" t="s">
@@ -17549,7 +17569,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>236</v>
       </c>
@@ -17559,19 +17579,19 @@
       <c r="D163" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E163" s="4" t="s">
+      <c r="E163" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F163" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G163" s="8" t="s">
+      <c r="G163" s="10" t="s">
         <v>168</v>
       </c>
       <c r="H163" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I163" s="4" t="s">
+      <c r="I163" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J163" s="2" t="s">
@@ -17611,7 +17631,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>1361</v>
       </c>
@@ -17621,19 +17641,19 @@
       <c r="D164" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E164" s="4" t="s">
+      <c r="E164" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F164" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G164" s="8" t="s">
+      <c r="G164" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H164" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="I164" s="4" t="s">
+      <c r="I164" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="J164" s="2" t="s">
@@ -17673,7 +17693,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>473</v>
       </c>
@@ -17683,19 +17703,19 @@
       <c r="D165" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E165" s="4" t="s">
+      <c r="E165" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G165" s="8" t="s">
+      <c r="G165" s="10" t="s">
         <v>461</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="I165" s="4" t="s">
+      <c r="I165" s="10" t="s">
         <v>463</v>
       </c>
       <c r="J165" s="2" t="s">
@@ -17735,7 +17755,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
         <v>2107</v>
       </c>
@@ -17745,19 +17765,19 @@
       <c r="D166" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E166" s="4" t="s">
+      <c r="E166" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F166" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G166" s="8" t="s">
+      <c r="G166" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H166" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="I166" s="4" t="s">
+      <c r="I166" s="10" t="s">
         <v>2040</v>
       </c>
       <c r="J166" s="2" t="s">
@@ -17791,7 +17811,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>355</v>
       </c>
@@ -17801,19 +17821,19 @@
       <c r="D167" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E167" s="4" t="s">
+      <c r="E167" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G167" s="8" t="s">
+      <c r="G167" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H167" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I167" s="4" t="s">
+      <c r="I167" s="10" t="s">
         <v>309</v>
       </c>
       <c r="J167" s="2" t="s">
@@ -17853,7 +17873,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>243</v>
       </c>
@@ -17863,19 +17883,19 @@
       <c r="D168" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E168" s="4" t="s">
+      <c r="E168" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F168" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G168" s="8" t="s">
+      <c r="G168" s="10" t="s">
         <v>168</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I168" s="4" t="s">
+      <c r="I168" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J168" s="2" t="s">
@@ -17915,7 +17935,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>364</v>
       </c>
@@ -17925,19 +17945,19 @@
       <c r="D169" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E169" s="4" t="s">
+      <c r="E169" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F169" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G169" s="8" t="s">
+      <c r="G169" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I169" s="4" t="s">
+      <c r="I169" s="10" t="s">
         <v>309</v>
       </c>
       <c r="J169" s="2" t="s">
@@ -17974,7 +17994,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>131</v>
       </c>
@@ -17984,19 +18004,19 @@
       <c r="D170" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E170" s="4" t="s">
+      <c r="E170" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G170" s="8" t="s">
+      <c r="G170" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H170" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I170" s="4" t="s">
+      <c r="I170" s="10" t="s">
         <v>115</v>
       </c>
       <c r="K170" s="2" t="s">
@@ -18022,7 +18042,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>593</v>
       </c>
@@ -18032,19 +18052,19 @@
       <c r="D171" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E171" s="4" t="s">
+      <c r="E171" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F171" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="G171" s="8" t="s">
+      <c r="G171" s="10" t="s">
         <v>519</v>
       </c>
       <c r="H171" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="I171" s="4" t="s">
+      <c r="I171" s="10" t="s">
         <v>571</v>
       </c>
       <c r="J171" s="2" t="s">
@@ -18084,7 +18104,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
         <v>1884</v>
       </c>
@@ -18094,19 +18114,19 @@
       <c r="D172" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E172" s="4" t="s">
+      <c r="E172" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F172" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="G172" s="8" t="s">
+      <c r="G172" s="10" t="s">
         <v>1859</v>
       </c>
       <c r="H172" s="4" t="s">
         <v>1282</v>
       </c>
-      <c r="I172" s="4" t="s">
+      <c r="I172" s="10" t="s">
         <v>1860</v>
       </c>
       <c r="J172" s="2" t="s">
@@ -18146,7 +18166,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>369</v>
       </c>
@@ -18156,19 +18176,19 @@
       <c r="D173" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E173" s="4" t="s">
+      <c r="E173" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F173" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G173" s="8" t="s">
+      <c r="G173" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H173" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I173" s="4" t="s">
+      <c r="I173" s="10" t="s">
         <v>309</v>
       </c>
       <c r="J173" s="2" t="s">
@@ -18208,7 +18228,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
         <v>1524</v>
       </c>
@@ -18218,19 +18238,19 @@
       <c r="D174" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E174" s="4" t="s">
+      <c r="E174" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F174" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G174" s="8" t="s">
+      <c r="G174" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H174" s="4" t="s">
         <v>1504</v>
       </c>
-      <c r="I174" s="4" t="s">
+      <c r="I174" s="10" t="s">
         <v>1505</v>
       </c>
       <c r="J174" s="2" t="s">
@@ -18270,7 +18290,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
         <v>1368</v>
       </c>
@@ -18280,19 +18300,19 @@
       <c r="D175" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E175" s="4" t="s">
+      <c r="E175" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F175" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G175" s="8" t="s">
+      <c r="G175" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H175" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="I175" s="4" t="s">
+      <c r="I175" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="J175" s="2" t="s">
@@ -18329,7 +18349,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
         <v>984</v>
       </c>
@@ -18339,19 +18359,19 @@
       <c r="D176" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E176" s="4" t="s">
+      <c r="E176" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F176" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="G176" s="8" t="s">
+      <c r="G176" s="10" t="s">
         <v>954</v>
       </c>
       <c r="H176" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="I176" s="4" t="s">
+      <c r="I176" s="10" t="s">
         <v>955</v>
       </c>
       <c r="J176" s="2" t="s">
@@ -18391,7 +18411,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
         <v>1377</v>
       </c>
@@ -18401,19 +18421,19 @@
       <c r="D177" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E177" s="4" t="s">
+      <c r="E177" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F177" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G177" s="8" t="s">
+      <c r="G177" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H177" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="I177" s="4" t="s">
+      <c r="I177" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="J177" s="2" t="s">
@@ -18453,7 +18473,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
         <v>2114</v>
       </c>
@@ -18463,19 +18483,19 @@
       <c r="D178" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E178" s="4" t="s">
+      <c r="E178" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F178" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G178" s="8" t="s">
+      <c r="G178" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H178" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="I178" s="4" t="s">
+      <c r="I178" s="10" t="s">
         <v>2040</v>
       </c>
       <c r="J178" s="2" t="s">
@@ -18512,7 +18532,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
         <v>1066</v>
       </c>
@@ -18525,19 +18545,19 @@
       <c r="D179" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E179" s="4" t="s">
+      <c r="E179" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F179" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="G179" s="8" t="s">
+      <c r="G179" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="H179" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="I179" s="4" t="s">
+      <c r="I179" s="10" t="s">
         <v>1021</v>
       </c>
       <c r="J179" s="2" t="s">
@@ -18586,7 +18606,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
         <v>134</v>
       </c>
@@ -18596,19 +18616,19 @@
       <c r="D180" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E180" s="4" t="s">
+      <c r="E180" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F180" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G180" s="8" t="s">
+      <c r="G180" s="10" t="s">
         <v>114</v>
       </c>
       <c r="H180" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I180" s="4" t="s">
+      <c r="I180" s="10" t="s">
         <v>115</v>
       </c>
       <c r="J180" s="2" t="s">
@@ -18648,7 +18668,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
         <v>1891</v>
       </c>
@@ -18658,19 +18678,19 @@
       <c r="D181" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E181" s="4" t="s">
+      <c r="E181" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F181" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="G181" s="8" t="s">
+      <c r="G181" s="10" t="s">
         <v>1859</v>
       </c>
       <c r="H181" s="4" t="s">
         <v>1282</v>
       </c>
-      <c r="I181" s="4" t="s">
+      <c r="I181" s="10" t="s">
         <v>1860</v>
       </c>
       <c r="J181" s="2" t="s">
@@ -18710,7 +18730,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
         <v>876</v>
       </c>
@@ -18720,19 +18740,19 @@
       <c r="D182" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E182" s="4" t="s">
+      <c r="E182" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F182" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="G182" s="8" t="s">
+      <c r="G182" s="10" t="s">
         <v>857</v>
       </c>
       <c r="H182" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I182" s="4" t="s">
+      <c r="I182" s="10" t="s">
         <v>858</v>
       </c>
       <c r="J182" s="2" t="s">
@@ -18772,7 +18792,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
         <v>549</v>
       </c>
@@ -18782,19 +18802,19 @@
       <c r="D183" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E183" s="4" t="s">
+      <c r="E183" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F183" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="G183" s="8" t="s">
+      <c r="G183" s="10" t="s">
         <v>519</v>
       </c>
       <c r="H183" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="I183" s="4" t="s">
+      <c r="I183" s="10" t="s">
         <v>519</v>
       </c>
       <c r="J183" s="2" t="s">
@@ -18834,7 +18854,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
         <v>252</v>
       </c>
@@ -18844,19 +18864,19 @@
       <c r="D184" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E184" s="4" t="s">
+      <c r="E184" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G184" s="8" t="s">
+      <c r="G184" s="10" t="s">
         <v>168</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I184" s="4" t="s">
+      <c r="I184" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J184" s="2" t="s">
@@ -18896,7 +18916,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
         <v>260</v>
       </c>
@@ -18906,19 +18926,19 @@
       <c r="D185" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E185" s="4" t="s">
+      <c r="E185" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F185" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G185" s="8" t="s">
+      <c r="G185" s="10" t="s">
         <v>168</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I185" s="4" t="s">
+      <c r="I185" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J185" s="2" t="s">
@@ -18958,7 +18978,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
         <v>2173</v>
       </c>
@@ -18968,19 +18988,19 @@
       <c r="D186" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E186" s="4" t="s">
+      <c r="E186" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F186" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="G186" s="8" t="s">
+      <c r="G186" s="10" t="s">
         <v>2171</v>
       </c>
       <c r="H186" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I186" s="4" t="s">
+      <c r="I186" s="10" t="s">
         <v>2172</v>
       </c>
       <c r="J186" s="2" t="s">
@@ -19017,7 +19037,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
         <v>1688</v>
       </c>
@@ -19027,19 +19047,19 @@
       <c r="D187" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E187" s="4" t="s">
+      <c r="E187" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F187" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G187" s="8" t="s">
+      <c r="G187" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H187" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="I187" s="4" t="s">
+      <c r="I187" s="10" t="s">
         <v>1589</v>
       </c>
       <c r="J187" s="2" t="s">
@@ -19079,7 +19099,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
         <v>1838</v>
       </c>
@@ -19089,19 +19109,19 @@
       <c r="D188" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E188" s="4" t="s">
+      <c r="E188" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F188" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="G188" s="8" t="s">
+      <c r="G188" s="10" t="s">
         <v>1133</v>
       </c>
       <c r="H188" s="4" t="s">
         <v>1828</v>
       </c>
-      <c r="I188" s="4" t="s">
+      <c r="I188" s="10" t="s">
         <v>1829</v>
       </c>
       <c r="J188" s="2" t="s">
@@ -19138,7 +19158,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
         <v>1167</v>
       </c>
@@ -19148,19 +19168,19 @@
       <c r="D189" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E189" s="4" t="s">
+      <c r="E189" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F189" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="G189" s="8" t="s">
+      <c r="G189" s="10" t="s">
         <v>1156</v>
       </c>
       <c r="H189" s="4" t="s">
         <v>1157</v>
       </c>
-      <c r="I189" s="4" t="s">
+      <c r="I189" s="10" t="s">
         <v>1158</v>
       </c>
       <c r="J189" s="2" t="s">
@@ -19200,7 +19220,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
         <v>1959</v>
       </c>
@@ -19210,19 +19230,19 @@
       <c r="D190" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E190" s="4" t="s">
+      <c r="E190" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F190" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="G190" s="8" t="s">
+      <c r="G190" s="10" t="s">
         <v>1924</v>
       </c>
       <c r="H190" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="I190" s="4" t="s">
+      <c r="I190" s="10" t="s">
         <v>1925</v>
       </c>
       <c r="J190" s="2" t="s">
@@ -19262,7 +19282,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
         <v>1472</v>
       </c>
@@ -19275,19 +19295,19 @@
       <c r="D191" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E191" s="4" t="s">
+      <c r="E191" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F191" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G191" s="8" t="s">
+      <c r="G191" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H191" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="I191" s="4" t="s">
+      <c r="I191" s="10" t="s">
         <v>1430</v>
       </c>
       <c r="J191" s="2" t="s">
@@ -19333,7 +19353,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
         <v>1233</v>
       </c>
@@ -19343,19 +19363,19 @@
       <c r="D192" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="E192" s="4" t="s">
+      <c r="E192" s="10" t="s">
         <v>1219</v>
       </c>
       <c r="F192" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="G192" s="8" t="s">
+      <c r="G192" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="H192" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="I192" s="4" t="s">
+      <c r="I192" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="K192" s="2" t="s">
@@ -19381,7 +19401,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
         <v>1238</v>
       </c>
@@ -19391,19 +19411,19 @@
       <c r="D193" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="E193" s="4" t="s">
+      <c r="E193" s="10" t="s">
         <v>1219</v>
       </c>
       <c r="F193" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="G193" s="8" t="s">
+      <c r="G193" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="H193" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="I193" s="4" t="s">
+      <c r="I193" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="K193" s="2" t="s">
@@ -19429,7 +19449,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
         <v>1243</v>
       </c>
@@ -19439,19 +19459,19 @@
       <c r="D194" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="E194" s="4" t="s">
+      <c r="E194" s="10" t="s">
         <v>1219</v>
       </c>
       <c r="F194" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="G194" s="8" t="s">
+      <c r="G194" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="H194" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="I194" s="4" t="s">
+      <c r="I194" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="K194" s="2" t="s">
@@ -19477,7 +19497,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
         <v>1248</v>
       </c>
@@ -19487,19 +19507,19 @@
       <c r="D195" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="E195" s="4" t="s">
+      <c r="E195" s="10" t="s">
         <v>1219</v>
       </c>
       <c r="F195" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="G195" s="8" t="s">
+      <c r="G195" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="H195" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="I195" s="4" t="s">
+      <c r="I195" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="K195" s="2" t="s">
@@ -19525,7 +19545,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
         <v>1253</v>
       </c>
@@ -19535,19 +19555,19 @@
       <c r="D196" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="E196" s="4" t="s">
+      <c r="E196" s="10" t="s">
         <v>1219</v>
       </c>
       <c r="F196" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="G196" s="8" t="s">
+      <c r="G196" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="H196" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="I196" s="4" t="s">
+      <c r="I196" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="K196" s="2" t="s">
@@ -19573,7 +19593,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
         <v>1258</v>
       </c>
@@ -19583,19 +19603,19 @@
       <c r="D197" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="E197" s="4" t="s">
+      <c r="E197" s="10" t="s">
         <v>1219</v>
       </c>
       <c r="F197" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="G197" s="8" t="s">
+      <c r="G197" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="H197" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="I197" s="4" t="s">
+      <c r="I197" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="K197" s="2" t="s">
@@ -19621,7 +19641,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
         <v>883</v>
       </c>
@@ -19631,19 +19651,19 @@
       <c r="D198" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E198" s="4" t="s">
+      <c r="E198" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F198" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="G198" s="8" t="s">
+      <c r="G198" s="10" t="s">
         <v>857</v>
       </c>
       <c r="H198" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I198" s="4" t="s">
+      <c r="I198" s="10" t="s">
         <v>858</v>
       </c>
       <c r="J198" s="2" t="s">
@@ -19683,7 +19703,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
         <v>1898</v>
       </c>
@@ -19693,19 +19713,19 @@
       <c r="D199" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E199" s="4" t="s">
+      <c r="E199" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F199" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="G199" s="8" t="s">
+      <c r="G199" s="10" t="s">
         <v>1859</v>
       </c>
       <c r="H199" s="4" t="s">
         <v>1282</v>
       </c>
-      <c r="I199" s="4" t="s">
+      <c r="I199" s="10" t="s">
         <v>1860</v>
       </c>
       <c r="J199" s="2" t="s">
@@ -19745,7 +19765,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
         <v>1968</v>
       </c>
@@ -19758,19 +19778,19 @@
       <c r="D200" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E200" s="4" t="s">
+      <c r="E200" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F200" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="G200" s="8" t="s">
+      <c r="G200" s="10" t="s">
         <v>1924</v>
       </c>
       <c r="H200" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="I200" s="4" t="s">
+      <c r="I200" s="10" t="s">
         <v>1925</v>
       </c>
       <c r="J200" s="2" t="s">
@@ -19816,7 +19836,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>556</v>
       </c>
@@ -19826,19 +19846,19 @@
       <c r="D201" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E201" s="4" t="s">
+      <c r="E201" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F201" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="G201" s="8" t="s">
+      <c r="G201" s="10" t="s">
         <v>519</v>
       </c>
       <c r="H201" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="I201" s="4" t="s">
+      <c r="I201" s="10" t="s">
         <v>519</v>
       </c>
       <c r="J201" s="2" t="s">
@@ -19878,7 +19898,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
         <v>1122</v>
       </c>
@@ -19888,19 +19908,19 @@
       <c r="D202" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E202" s="4" t="s">
+      <c r="E202" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F202" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="G202" s="8" t="s">
+      <c r="G202" s="10" t="s">
         <v>1133</v>
       </c>
       <c r="H202" s="4" t="s">
         <v>1134</v>
       </c>
-      <c r="I202" s="4" t="s">
+      <c r="I202" s="10" t="s">
         <v>1135</v>
       </c>
       <c r="J202" s="2" t="s">
@@ -19940,7 +19960,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
         <v>633</v>
       </c>
@@ -19950,19 +19970,19 @@
       <c r="D203" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E203" s="4" t="s">
+      <c r="E203" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F203" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G203" s="8" t="s">
+      <c r="G203" s="10" t="s">
         <v>630</v>
       </c>
       <c r="H203" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="I203" s="4" t="s">
+      <c r="I203" s="10" t="s">
         <v>632</v>
       </c>
       <c r="J203" s="2" t="s">
@@ -20002,7 +20022,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
         <v>712</v>
       </c>
@@ -20012,19 +20032,19 @@
       <c r="D204" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E204" s="4" t="s">
+      <c r="E204" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F204" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G204" s="8" t="s">
+      <c r="G204" s="10" t="s">
         <v>630</v>
       </c>
       <c r="H204" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="I204" s="4" t="s">
+      <c r="I204" s="10" t="s">
         <v>721</v>
       </c>
       <c r="J204" s="2" t="s">
@@ -20064,7 +20084,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
         <v>2179</v>
       </c>
@@ -20074,19 +20094,19 @@
       <c r="D205" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E205" s="4" t="s">
+      <c r="E205" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F205" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="G205" s="8" t="s">
+      <c r="G205" s="10" t="s">
         <v>2171</v>
       </c>
       <c r="H205" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I205" s="4" t="s">
+      <c r="I205" s="10" t="s">
         <v>2172</v>
       </c>
       <c r="J205" s="2" t="s">
@@ -20126,7 +20146,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
         <v>2186</v>
       </c>
@@ -20136,19 +20156,19 @@
       <c r="D206" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E206" s="4" t="s">
+      <c r="E206" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F206" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="G206" s="8" t="s">
+      <c r="G206" s="10" t="s">
         <v>2171</v>
       </c>
       <c r="H206" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I206" s="4" t="s">
+      <c r="I206" s="10" t="s">
         <v>2172</v>
       </c>
       <c r="J206" s="2" t="s">
@@ -20185,7 +20205,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
         <v>1533</v>
       </c>
@@ -20195,19 +20215,19 @@
       <c r="D207" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E207" s="4" t="s">
+      <c r="E207" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F207" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G207" s="8" t="s">
+      <c r="G207" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H207" s="4" t="s">
         <v>1504</v>
       </c>
-      <c r="I207" s="4" t="s">
+      <c r="I207" s="10" t="s">
         <v>1505</v>
       </c>
       <c r="J207" s="2" t="s">
@@ -20247,7 +20267,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
         <v>1384</v>
       </c>
@@ -20257,19 +20277,19 @@
       <c r="D208" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E208" s="4" t="s">
+      <c r="E208" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F208" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G208" s="8" t="s">
+      <c r="G208" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H208" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="I208" s="4" t="s">
+      <c r="I208" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="J208" s="2" t="s">
@@ -20309,7 +20329,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
         <v>1766</v>
       </c>
@@ -20319,19 +20339,19 @@
       <c r="D209" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E209" s="4" t="s">
+      <c r="E209" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F209" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G209" s="8" t="s">
+      <c r="G209" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H209" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I209" s="4" t="s">
+      <c r="I209" s="10" t="s">
         <v>1746</v>
       </c>
       <c r="J209" s="2" t="s">
@@ -20365,7 +20385,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
         <v>2028</v>
       </c>
@@ -20375,19 +20395,19 @@
       <c r="D210" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E210" s="4" t="s">
+      <c r="E210" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F210" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="G210" s="8" t="s">
+      <c r="G210" s="10" t="s">
         <v>1924</v>
       </c>
       <c r="H210" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="I210" s="4" t="s">
+      <c r="I210" s="10" t="s">
         <v>2000</v>
       </c>
       <c r="J210" s="2" t="s">
@@ -20427,7 +20447,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
         <v>1696</v>
       </c>
@@ -20440,19 +20460,19 @@
       <c r="D211" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E211" s="4" t="s">
+      <c r="E211" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F211" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G211" s="8" t="s">
+      <c r="G211" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H211" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="I211" s="4" t="s">
+      <c r="I211" s="10" t="s">
         <v>1589</v>
       </c>
       <c r="J211" s="2" t="s">
@@ -20501,7 +20521,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
         <v>68</v>
       </c>
@@ -20511,19 +20531,19 @@
       <c r="D212" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E212" s="4" t="s">
+      <c r="E212" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F212" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G212" s="8" t="s">
+      <c r="G212" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H212" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I212" s="4" t="s">
+      <c r="I212" s="10" t="s">
         <v>32</v>
       </c>
       <c r="J212" s="2" t="s">
@@ -20563,7 +20583,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
         <v>77</v>
       </c>
@@ -20573,19 +20593,19 @@
       <c r="D213" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E213" s="4" t="s">
+      <c r="E213" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F213" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G213" s="8" t="s">
+      <c r="G213" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H213" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I213" s="4" t="s">
+      <c r="I213" s="10" t="s">
         <v>32</v>
       </c>
       <c r="J213" s="2" t="s">
@@ -20625,7 +20645,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
         <v>1772</v>
       </c>
@@ -20635,19 +20655,19 @@
       <c r="D214" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E214" s="4" t="s">
+      <c r="E214" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F214" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G214" s="8" t="s">
+      <c r="G214" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H214" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I214" s="4" t="s">
+      <c r="I214" s="10" t="s">
         <v>1746</v>
       </c>
       <c r="J214" s="2" t="s">
@@ -20687,7 +20707,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
         <v>377</v>
       </c>
@@ -20700,19 +20720,19 @@
       <c r="D215" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E215" s="4" t="s">
+      <c r="E215" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F215" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G215" s="8" t="s">
+      <c r="G215" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H215" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I215" s="4" t="s">
+      <c r="I215" s="10" t="s">
         <v>309</v>
       </c>
       <c r="J215" s="2" t="s">
@@ -20749,7 +20769,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
         <v>1543</v>
       </c>
@@ -20759,19 +20779,19 @@
       <c r="D216" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E216" s="4" t="s">
+      <c r="E216" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F216" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G216" s="8" t="s">
+      <c r="G216" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H216" s="4" t="s">
         <v>1504</v>
       </c>
-      <c r="I216" s="4" t="s">
+      <c r="I216" s="10" t="s">
         <v>1505</v>
       </c>
       <c r="J216" s="2" t="s">
@@ -20811,7 +20831,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
         <v>1785</v>
       </c>
@@ -20821,19 +20841,19 @@
       <c r="D217" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E217" s="4" t="s">
+      <c r="E217" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F217" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G217" s="8" t="s">
+      <c r="G217" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H217" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="I217" s="4" t="s">
+      <c r="I217" s="10" t="s">
         <v>1784</v>
       </c>
       <c r="J217" s="2" t="s">
@@ -20873,7 +20893,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
         <v>1570</v>
       </c>
@@ -20883,19 +20903,19 @@
       <c r="D218" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E218" s="4" t="s">
+      <c r="E218" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F218" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G218" s="8" t="s">
+      <c r="G218" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H218" s="4" t="s">
         <v>1495</v>
       </c>
-      <c r="I218" s="4" t="s">
+      <c r="I218" s="10" t="s">
         <v>1580</v>
       </c>
       <c r="J218" s="2" t="s">
@@ -20935,7 +20955,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
         <v>483</v>
       </c>
@@ -20945,19 +20965,19 @@
       <c r="D219" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E219" s="4" t="s">
+      <c r="E219" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F219" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G219" s="8" t="s">
+      <c r="G219" s="10" t="s">
         <v>461</v>
       </c>
       <c r="H219" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="I219" s="4" t="s">
+      <c r="I219" s="10" t="s">
         <v>463</v>
       </c>
       <c r="J219" s="2" t="s">
@@ -20994,7 +21014,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
         <v>268</v>
       </c>
@@ -21004,19 +21024,19 @@
       <c r="D220" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E220" s="4" t="s">
+      <c r="E220" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F220" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G220" s="8" t="s">
+      <c r="G220" s="10" t="s">
         <v>168</v>
       </c>
       <c r="H220" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I220" s="4" t="s">
+      <c r="I220" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J220" s="2" t="s">
@@ -21053,7 +21073,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
         <v>2120</v>
       </c>
@@ -21066,19 +21086,19 @@
       <c r="D221" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E221" s="4" t="s">
+      <c r="E221" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F221" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G221" s="8" t="s">
+      <c r="G221" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H221" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="I221" s="4" t="s">
+      <c r="I221" s="10" t="s">
         <v>2040</v>
       </c>
       <c r="J221" s="2" t="s">
@@ -21121,7 +21141,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
         <v>2130</v>
       </c>
@@ -21131,19 +21151,19 @@
       <c r="D222" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E222" s="4" t="s">
+      <c r="E222" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F222" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G222" s="8" t="s">
+      <c r="G222" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H222" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="I222" s="4" t="s">
+      <c r="I222" s="10" t="s">
         <v>2040</v>
       </c>
       <c r="J222" s="2" t="s">
@@ -21183,7 +21203,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
         <v>2136</v>
       </c>
@@ -21193,19 +21213,19 @@
       <c r="D223" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E223" s="4" t="s">
+      <c r="E223" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F223" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G223" s="8" t="s">
+      <c r="G223" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H223" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="I223" s="4" t="s">
+      <c r="I223" s="10" t="s">
         <v>2040</v>
       </c>
       <c r="J223" s="2" t="s">
@@ -21245,7 +21265,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
         <v>2145</v>
       </c>
@@ -21255,19 +21275,19 @@
       <c r="D224" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E224" s="4" t="s">
+      <c r="E224" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F224" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G224" s="8" t="s">
+      <c r="G224" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H224" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="I224" s="4" t="s">
+      <c r="I224" s="10" t="s">
         <v>2040</v>
       </c>
       <c r="J224" s="2" t="s">
@@ -21304,7 +21324,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
         <v>603</v>
       </c>
@@ -21314,19 +21334,19 @@
       <c r="D225" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E225" s="4" t="s">
+      <c r="E225" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F225" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="G225" s="8" t="s">
+      <c r="G225" s="10" t="s">
         <v>571</v>
       </c>
       <c r="H225" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="I225" s="4" t="s">
+      <c r="I225" s="10" t="s">
         <v>571</v>
       </c>
       <c r="J225" s="2" t="s">
@@ -21363,7 +21383,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
         <v>2194</v>
       </c>
@@ -21373,19 +21393,19 @@
       <c r="D226" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E226" s="4" t="s">
+      <c r="E226" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F226" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="G226" s="8" t="s">
+      <c r="G226" s="10" t="s">
         <v>2171</v>
       </c>
       <c r="H226" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I226" s="4" t="s">
+      <c r="I226" s="10" t="s">
         <v>2172</v>
       </c>
       <c r="J226" s="2" t="s">
@@ -21425,7 +21445,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
         <v>2201</v>
       </c>
@@ -21435,19 +21455,19 @@
       <c r="D227" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E227" s="4" t="s">
+      <c r="E227" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F227" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="G227" s="8" t="s">
+      <c r="G227" s="10" t="s">
         <v>2171</v>
       </c>
       <c r="H227" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I227" s="4" t="s">
+      <c r="I227" s="10" t="s">
         <v>2172</v>
       </c>
       <c r="J227" s="2" t="s">
@@ -21484,7 +21504,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
         <v>1391</v>
       </c>
@@ -21494,19 +21514,19 @@
       <c r="D228" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E228" s="4" t="s">
+      <c r="E228" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F228" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G228" s="8" t="s">
+      <c r="G228" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H228" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="I228" s="4" t="s">
+      <c r="I228" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="J228" s="2" t="s">
@@ -21546,7 +21566,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
         <v>1398</v>
       </c>
@@ -21559,19 +21579,19 @@
       <c r="D229" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E229" s="4" t="s">
+      <c r="E229" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F229" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G229" s="8" t="s">
+      <c r="G229" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H229" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="I229" s="4" t="s">
+      <c r="I229" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="J229" s="2" t="s">
@@ -21623,7 +21643,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
         <v>87</v>
       </c>
@@ -21633,19 +21653,19 @@
       <c r="D230" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E230" s="4" t="s">
+      <c r="E230" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F230" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G230" s="8" t="s">
+      <c r="G230" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H230" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I230" s="4" t="s">
+      <c r="I230" s="10" t="s">
         <v>32</v>
       </c>
       <c r="J230" s="2" t="s">
@@ -21685,7 +21705,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
         <v>276</v>
       </c>
@@ -21695,19 +21715,19 @@
       <c r="D231" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E231" s="4" t="s">
+      <c r="E231" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F231" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G231" s="8" t="s">
+      <c r="G231" s="10" t="s">
         <v>168</v>
       </c>
       <c r="H231" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I231" s="4" t="s">
+      <c r="I231" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J231" s="2" t="s">
@@ -21747,7 +21767,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
         <v>1410</v>
       </c>
@@ -21757,19 +21777,19 @@
       <c r="D232" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E232" s="4" t="s">
+      <c r="E232" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F232" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G232" s="8" t="s">
+      <c r="G232" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H232" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="I232" s="4" t="s">
+      <c r="I232" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="J232" s="2" t="s">
@@ -21809,7 +21829,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
         <v>388</v>
       </c>
@@ -21819,19 +21839,19 @@
       <c r="D233" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E233" s="4" t="s">
+      <c r="E233" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F233" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G233" s="8" t="s">
+      <c r="G233" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H233" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I233" s="4" t="s">
+      <c r="I233" s="10" t="s">
         <v>309</v>
       </c>
       <c r="J233" s="2" t="s">
@@ -21871,7 +21891,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
         <v>283</v>
       </c>
@@ -21881,19 +21901,19 @@
       <c r="D234" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E234" s="4" t="s">
+      <c r="E234" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F234" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G234" s="8" t="s">
+      <c r="G234" s="10" t="s">
         <v>168</v>
       </c>
       <c r="H234" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I234" s="4" t="s">
+      <c r="I234" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J234" s="2" t="s">
@@ -21933,7 +21953,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
         <v>1075</v>
       </c>
@@ -21943,19 +21963,19 @@
       <c r="D235" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E235" s="4" t="s">
+      <c r="E235" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F235" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="G235" s="8" t="s">
+      <c r="G235" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="H235" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="I235" s="4" t="s">
+      <c r="I235" s="10" t="s">
         <v>1021</v>
       </c>
       <c r="J235" s="2" t="s">
@@ -21995,7 +22015,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
         <v>2154</v>
       </c>
@@ -22008,19 +22028,19 @@
       <c r="D236" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E236" s="4" t="s">
+      <c r="E236" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F236" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G236" s="8" t="s">
+      <c r="G236" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H236" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="I236" s="4" t="s">
+      <c r="I236" s="10" t="s">
         <v>2040</v>
       </c>
       <c r="J236" s="2" t="s">
@@ -22069,7 +22089,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
         <v>1981</v>
       </c>
@@ -22079,19 +22099,19 @@
       <c r="D237" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E237" s="4" t="s">
+      <c r="E237" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F237" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="G237" s="8" t="s">
+      <c r="G237" s="10" t="s">
         <v>1924</v>
       </c>
       <c r="H237" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="I237" s="4" t="s">
+      <c r="I237" s="10" t="s">
         <v>1925</v>
       </c>
       <c r="J237" s="2" t="s">
@@ -22131,7 +22151,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
         <v>395</v>
       </c>
@@ -22141,19 +22161,19 @@
       <c r="D238" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E238" s="4" t="s">
+      <c r="E238" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F238" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G238" s="8" t="s">
+      <c r="G238" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H238" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I238" s="4" t="s">
+      <c r="I238" s="10" t="s">
         <v>309</v>
       </c>
       <c r="J238" s="2" t="s">
@@ -22193,7 +22213,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
         <v>890</v>
       </c>
@@ -22203,19 +22223,19 @@
       <c r="D239" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E239" s="4" t="s">
+      <c r="E239" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F239" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="G239" s="8" t="s">
+      <c r="G239" s="10" t="s">
         <v>857</v>
       </c>
       <c r="H239" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I239" s="4" t="s">
+      <c r="I239" s="10" t="s">
         <v>858</v>
       </c>
       <c r="J239" s="2" t="s">
@@ -22255,7 +22275,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
         <v>142</v>
       </c>
@@ -22265,19 +22285,19 @@
       <c r="D240" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E240" s="4" t="s">
+      <c r="E240" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F240" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G240" s="8" t="s">
+      <c r="G240" s="10" t="s">
         <v>114</v>
       </c>
       <c r="H240" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I240" s="4" t="s">
+      <c r="I240" s="10" t="s">
         <v>115</v>
       </c>
       <c r="J240" s="2" t="s">
@@ -22317,7 +22337,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
         <v>492</v>
       </c>
@@ -22327,19 +22347,19 @@
       <c r="D241" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E241" s="4" t="s">
+      <c r="E241" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F241" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G241" s="8" t="s">
+      <c r="G241" s="10" t="s">
         <v>461</v>
       </c>
       <c r="H241" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="I241" s="4" t="s">
+      <c r="I241" s="10" t="s">
         <v>463</v>
       </c>
       <c r="J241" s="2" t="s">
@@ -22379,7 +22399,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
         <v>442</v>
       </c>
@@ -22389,19 +22409,19 @@
       <c r="D242" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E242" s="4" t="s">
+      <c r="E242" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F242" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G242" s="8" t="s">
+      <c r="G242" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H242" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I242" s="4" t="s">
+      <c r="I242" s="10" t="s">
         <v>451</v>
       </c>
       <c r="J242" s="2" t="s">
@@ -22441,7 +22461,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
         <v>1709</v>
       </c>
@@ -22451,19 +22471,19 @@
       <c r="D243" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E243" s="4" t="s">
+      <c r="E243" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F243" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G243" s="8" t="s">
+      <c r="G243" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H243" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="I243" s="4" t="s">
+      <c r="I243" s="10" t="s">
         <v>1589</v>
       </c>
       <c r="J243" s="2" t="s">
@@ -22503,7 +22523,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
         <v>1484</v>
       </c>
@@ -22513,19 +22533,19 @@
       <c r="D244" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E244" s="4" t="s">
+      <c r="E244" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F244" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G244" s="8" t="s">
+      <c r="G244" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H244" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="I244" s="4" t="s">
+      <c r="I244" s="10" t="s">
         <v>1430</v>
       </c>
       <c r="J244" s="2" t="s">
@@ -22571,7 +22591,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
         <v>704</v>
       </c>
@@ -22581,19 +22601,19 @@
       <c r="D245" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E245" s="4" t="s">
+      <c r="E245" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F245" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G245" s="8" t="s">
+      <c r="G245" s="10" t="s">
         <v>630</v>
       </c>
       <c r="H245" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="I245" s="4" t="s">
+      <c r="I245" s="10" t="s">
         <v>703</v>
       </c>
       <c r="J245" s="2" t="s">
@@ -22633,7 +22653,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
         <v>1719</v>
       </c>
@@ -22643,19 +22663,19 @@
       <c r="D246" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E246" s="4" t="s">
+      <c r="E246" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F246" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G246" s="8" t="s">
+      <c r="G246" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H246" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="I246" s="4" t="s">
+      <c r="I246" s="10" t="s">
         <v>1589</v>
       </c>
       <c r="J246" s="2" t="s">
@@ -22689,7 +22709,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
         <v>151</v>
       </c>
@@ -22699,19 +22719,19 @@
       <c r="D247" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E247" s="4" t="s">
+      <c r="E247" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F247" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G247" s="8" t="s">
+      <c r="G247" s="10" t="s">
         <v>114</v>
       </c>
       <c r="H247" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I247" s="4" t="s">
+      <c r="I247" s="10" t="s">
         <v>115</v>
       </c>
       <c r="J247" s="2" t="s">
@@ -22751,7 +22771,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
         <v>822</v>
       </c>
@@ -22761,19 +22781,19 @@
       <c r="D248" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E248" s="4" t="s">
+      <c r="E248" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F248" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="G248" s="8" t="s">
+      <c r="G248" s="10" t="s">
         <v>809</v>
       </c>
       <c r="H248" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="I248" s="4" t="s">
+      <c r="I248" s="10" t="s">
         <v>811</v>
       </c>
       <c r="J248" s="2" t="s">
@@ -22813,7 +22833,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
         <v>1083</v>
       </c>
@@ -22823,19 +22843,19 @@
       <c r="D249" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E249" s="4" t="s">
+      <c r="E249" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F249" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="G249" s="8" t="s">
+      <c r="G249" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="H249" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="I249" s="4" t="s">
+      <c r="I249" s="10" t="s">
         <v>1021</v>
       </c>
       <c r="J249" s="2" t="s">
@@ -22875,7 +22895,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="s">
         <v>992</v>
       </c>
@@ -22885,19 +22905,19 @@
       <c r="D250" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E250" s="4" t="s">
+      <c r="E250" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F250" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="G250" s="8" t="s">
+      <c r="G250" s="10" t="s">
         <v>954</v>
       </c>
       <c r="H250" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="I250" s="4" t="s">
+      <c r="I250" s="10" t="s">
         <v>955</v>
       </c>
       <c r="J250" s="2" t="s">
@@ -22937,7 +22957,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="s">
         <v>403</v>
       </c>
@@ -22947,19 +22967,19 @@
       <c r="D251" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E251" s="4" t="s">
+      <c r="E251" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F251" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G251" s="8" t="s">
+      <c r="G251" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H251" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I251" s="4" t="s">
+      <c r="I251" s="10" t="s">
         <v>309</v>
       </c>
       <c r="J251" s="2" t="s">
@@ -22999,7 +23019,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
         <v>760</v>
       </c>
@@ -23012,19 +23032,19 @@
       <c r="D252" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E252" s="4" t="s">
+      <c r="E252" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F252" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G252" s="8" t="s">
+      <c r="G252" s="10" t="s">
         <v>630</v>
       </c>
       <c r="H252" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="I252" s="4" t="s">
+      <c r="I252" s="10" t="s">
         <v>769</v>
       </c>
       <c r="K252" s="2" t="s">
@@ -23061,7 +23081,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A253" s="4" t="s">
         <v>412</v>
       </c>
@@ -23071,19 +23091,19 @@
       <c r="D253" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E253" s="4" t="s">
+      <c r="E253" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F253" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G253" s="8" t="s">
+      <c r="G253" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H253" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I253" s="4" t="s">
+      <c r="I253" s="10" t="s">
         <v>309</v>
       </c>
       <c r="K253" s="2" t="s">
@@ -23117,7 +23137,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A254" s="4" t="s">
         <v>896</v>
       </c>
@@ -23127,19 +23147,19 @@
       <c r="D254" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E254" s="4" t="s">
+      <c r="E254" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F254" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="G254" s="8" t="s">
+      <c r="G254" s="10" t="s">
         <v>857</v>
       </c>
       <c r="H254" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I254" s="4" t="s">
+      <c r="I254" s="10" t="s">
         <v>858</v>
       </c>
       <c r="N254" s="6"/>
@@ -23162,7 +23182,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A255" s="4" t="s">
         <v>1111</v>
       </c>
@@ -23175,19 +23195,19 @@
       <c r="D255" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E255" s="4" t="s">
+      <c r="E255" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F255" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="G255" s="8" t="s">
+      <c r="G255" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="H255" s="4" t="s">
         <v>1109</v>
       </c>
-      <c r="I255" s="4" t="s">
+      <c r="I255" s="10" t="s">
         <v>1110</v>
       </c>
       <c r="J255" s="2" t="s">
@@ -23239,7 +23259,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="s">
         <v>291</v>
       </c>
@@ -23249,19 +23269,19 @@
       <c r="D256" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E256" s="4" t="s">
+      <c r="E256" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F256" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G256" s="8" t="s">
+      <c r="G256" s="10" t="s">
         <v>168</v>
       </c>
       <c r="H256" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I256" s="4" t="s">
+      <c r="I256" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J256" s="2" t="s">
@@ -23301,7 +23321,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="s">
         <v>2207</v>
       </c>
@@ -23311,19 +23331,19 @@
       <c r="D257" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E257" s="4" t="s">
+      <c r="E257" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F257" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="G257" s="8" t="s">
+      <c r="G257" s="10" t="s">
         <v>2171</v>
       </c>
       <c r="H257" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I257" s="4" t="s">
+      <c r="I257" s="10" t="s">
         <v>2172</v>
       </c>
       <c r="J257" s="2" t="s">
@@ -23360,7 +23380,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="s">
         <v>2213</v>
       </c>
@@ -23370,19 +23390,19 @@
       <c r="D258" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E258" s="4" t="s">
+      <c r="E258" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F258" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="G258" s="8" t="s">
+      <c r="G258" s="10" t="s">
         <v>2171</v>
       </c>
       <c r="H258" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I258" s="4" t="s">
+      <c r="I258" s="10" t="s">
         <v>2172</v>
       </c>
       <c r="J258" s="2" t="s">
@@ -23422,7 +23442,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="s">
         <v>749</v>
       </c>
@@ -23432,19 +23452,19 @@
       <c r="D259" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E259" s="4" t="s">
+      <c r="E259" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F259" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G259" s="8" t="s">
+      <c r="G259" s="10" t="s">
         <v>758</v>
       </c>
       <c r="H259" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I259" s="4" t="s">
+      <c r="I259" s="10" t="s">
         <v>759</v>
       </c>
       <c r="J259" s="2" t="s">
@@ -23484,7 +23504,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="s">
         <v>501</v>
       </c>
@@ -23494,19 +23514,19 @@
       <c r="D260" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E260" s="4" t="s">
+      <c r="E260" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F260" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G260" s="8" t="s">
+      <c r="G260" s="10" t="s">
         <v>461</v>
       </c>
       <c r="H260" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="I260" s="4" t="s">
+      <c r="I260" s="10" t="s">
         <v>463</v>
       </c>
       <c r="J260" s="2" t="s">
@@ -23546,7 +23566,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
         <v>832</v>
       </c>
@@ -23556,19 +23576,19 @@
       <c r="D261" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E261" s="4" t="s">
+      <c r="E261" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F261" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="G261" s="8" t="s">
+      <c r="G261" s="10" t="s">
         <v>809</v>
       </c>
       <c r="H261" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="I261" s="4" t="s">
+      <c r="I261" s="10" t="s">
         <v>811</v>
       </c>
       <c r="J261" s="2" t="s">
@@ -23608,7 +23628,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
         <v>1728</v>
       </c>
@@ -23618,19 +23638,19 @@
       <c r="D262" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E262" s="4" t="s">
+      <c r="E262" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F262" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G262" s="8" t="s">
+      <c r="G262" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H262" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="I262" s="4" t="s">
+      <c r="I262" s="10" t="s">
         <v>1738</v>
       </c>
       <c r="J262" s="2" t="s">
@@ -23670,7 +23690,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A263" s="4" t="s">
         <v>2219</v>
       </c>
@@ -23680,19 +23700,19 @@
       <c r="D263" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E263" s="4" t="s">
+      <c r="E263" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F263" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="G263" s="8" t="s">
+      <c r="G263" s="10" t="s">
         <v>2171</v>
       </c>
       <c r="H263" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I263" s="4" t="s">
+      <c r="I263" s="10" t="s">
         <v>2172</v>
       </c>
       <c r="J263" s="2" t="s">
@@ -23732,7 +23752,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
         <v>97</v>
       </c>
@@ -23742,19 +23762,19 @@
       <c r="D264" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E264" s="4" t="s">
+      <c r="E264" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F264" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G264" s="8" t="s">
+      <c r="G264" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H264" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I264" s="4" t="s">
+      <c r="I264" s="10" t="s">
         <v>32</v>
       </c>
       <c r="J264" s="2" t="s">
@@ -23794,7 +23814,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="s">
         <v>1550</v>
       </c>
@@ -23807,19 +23827,19 @@
       <c r="D265" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E265" s="4" t="s">
+      <c r="E265" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F265" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G265" s="8" t="s">
+      <c r="G265" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H265" s="4" t="s">
         <v>1504</v>
       </c>
-      <c r="I265" s="4" t="s">
+      <c r="I265" s="10" t="s">
         <v>1505</v>
       </c>
       <c r="J265" s="2" t="s">
@@ -23862,7 +23882,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
         <v>1561</v>
       </c>
@@ -23872,19 +23892,19 @@
       <c r="D266" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E266" s="4" t="s">
+      <c r="E266" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F266" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G266" s="8" t="s">
+      <c r="G266" s="10" t="s">
         <v>934</v>
       </c>
       <c r="H266" s="4" t="s">
         <v>1504</v>
       </c>
-      <c r="I266" s="4" t="s">
+      <c r="I266" s="10" t="s">
         <v>1505</v>
       </c>
       <c r="J266" s="2" t="s">
@@ -23924,7 +23944,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A267" s="4" t="s">
         <v>419</v>
       </c>
@@ -23934,19 +23954,19 @@
       <c r="D267" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E267" s="4" t="s">
+      <c r="E267" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F267" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G267" s="8" t="s">
+      <c r="G267" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H267" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I267" s="4" t="s">
+      <c r="I267" s="10" t="s">
         <v>309</v>
       </c>
       <c r="J267" s="2" t="s">
@@ -23986,7 +24006,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A268" s="4" t="s">
         <v>1263</v>
       </c>
@@ -23996,19 +24016,19 @@
       <c r="D268" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E268" s="4" t="s">
+      <c r="E268" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F268" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G268" s="8" t="s">
+      <c r="G268" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H268" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="I268" s="4" t="s">
+      <c r="I268" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="K268" s="2" t="s">
@@ -24034,7 +24054,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="s">
         <v>651</v>
       </c>
@@ -24044,19 +24064,19 @@
       <c r="D269" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E269" s="4" t="s">
+      <c r="E269" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F269" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G269" s="8" t="s">
+      <c r="G269" s="10" t="s">
         <v>630</v>
       </c>
       <c r="H269" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="I269" s="4" t="s">
+      <c r="I269" s="10" t="s">
         <v>650</v>
       </c>
       <c r="J269" s="2" t="s">
@@ -24096,7 +24116,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
         <v>839</v>
       </c>
@@ -24106,19 +24126,19 @@
       <c r="D270" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E270" s="4" t="s">
+      <c r="E270" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F270" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="G270" s="8" t="s">
+      <c r="G270" s="10" t="s">
         <v>809</v>
       </c>
       <c r="H270" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="I270" s="4" t="s">
+      <c r="I270" s="10" t="s">
         <v>811</v>
       </c>
       <c r="J270" s="2" t="s">
@@ -24158,7 +24178,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="s">
         <v>1847</v>
       </c>
@@ -24168,19 +24188,19 @@
       <c r="D271" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E271" s="4" t="s">
+      <c r="E271" s="10" t="s">
         <v>1132</v>
       </c>
       <c r="F271" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="G271" s="8" t="s">
+      <c r="G271" s="10" t="s">
         <v>1133</v>
       </c>
       <c r="H271" s="4" t="s">
         <v>1828</v>
       </c>
-      <c r="I271" s="4" t="s">
+      <c r="I271" s="10" t="s">
         <v>1829</v>
       </c>
       <c r="J271" s="2" t="s">
@@ -24220,7 +24240,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="s">
         <v>740</v>
       </c>
@@ -24230,19 +24250,19 @@
       <c r="D272" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E272" s="4" t="s">
+      <c r="E272" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F272" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G272" s="8" t="s">
+      <c r="G272" s="10" t="s">
         <v>630</v>
       </c>
       <c r="H272" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="I272" s="4" t="s">
+      <c r="I272" s="10" t="s">
         <v>739</v>
       </c>
       <c r="J272" s="2" t="s">
@@ -24282,7 +24302,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A273" s="4" t="s">
         <v>1093</v>
       </c>
@@ -24292,19 +24312,19 @@
       <c r="D273" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E273" s="4" t="s">
+      <c r="E273" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F273" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="G273" s="8" t="s">
+      <c r="G273" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="H273" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="I273" s="4" t="s">
+      <c r="I273" s="10" t="s">
         <v>1021</v>
       </c>
       <c r="J273" s="2" t="s">
@@ -24344,7 +24364,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
         <v>2224</v>
       </c>
@@ -24354,19 +24374,19 @@
       <c r="D274" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E274" s="4" t="s">
+      <c r="E274" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F274" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G274" s="8" t="s">
+      <c r="G274" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H274" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I274" s="4" t="s">
+      <c r="I274" s="10" t="s">
         <v>2172</v>
       </c>
       <c r="J274" s="2" t="s">
@@ -24403,7 +24423,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="s">
         <v>722</v>
       </c>
@@ -24413,19 +24433,19 @@
       <c r="D275" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E275" s="4" t="s">
+      <c r="E275" s="10" t="s">
         <v>518</v>
       </c>
       <c r="F275" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G275" s="8" t="s">
+      <c r="G275" s="10" t="s">
         <v>630</v>
       </c>
       <c r="H275" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="I275" s="4" t="s">
+      <c r="I275" s="10" t="s">
         <v>721</v>
       </c>
       <c r="J275" s="2" t="s">
@@ -24465,7 +24485,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
         <v>1002</v>
       </c>
@@ -24475,19 +24495,19 @@
       <c r="D276" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E276" s="4" t="s">
+      <c r="E276" s="10" t="s">
         <v>808</v>
       </c>
       <c r="F276" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="G276" s="8" t="s">
+      <c r="G276" s="10" t="s">
         <v>954</v>
       </c>
       <c r="H276" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="I276" s="4" t="s">
+      <c r="I276" s="10" t="s">
         <v>955</v>
       </c>
       <c r="J276" s="2" t="s">
@@ -24527,7 +24547,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
         <v>1810</v>
       </c>
@@ -24537,19 +24557,19 @@
       <c r="D277" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E277" s="4" t="s">
+      <c r="E277" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F277" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G277" s="8" t="s">
+      <c r="G277" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H277" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="I277" s="4" t="s">
+      <c r="I277" s="10" t="s">
         <v>1821</v>
       </c>
       <c r="J277" s="2" t="s">
@@ -24592,7 +24612,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A278" s="4" t="s">
         <v>426</v>
       </c>
@@ -24602,19 +24622,19 @@
       <c r="D278" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E278" s="4" t="s">
+      <c r="E278" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F278" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G278" s="8" t="s">
+      <c r="G278" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H278" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I278" s="4" t="s">
+      <c r="I278" s="10" t="s">
         <v>309</v>
       </c>
       <c r="J278" s="2" t="s">
@@ -24654,7 +24674,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A279" s="4" t="s">
         <v>434</v>
       </c>
@@ -24664,19 +24684,19 @@
       <c r="D279" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E279" s="4" t="s">
+      <c r="E279" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F279" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G279" s="8" t="s">
+      <c r="G279" s="10" t="s">
         <v>308</v>
       </c>
       <c r="H279" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I279" s="4" t="s">
+      <c r="I279" s="10" t="s">
         <v>309</v>
       </c>
       <c r="J279" s="2" t="s">
@@ -24716,8 +24736,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A280" s="9" t="s">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A280" s="8" t="s">
         <v>2246</v>
       </c>
       <c r="B280" s="2" t="s">
@@ -24726,19 +24746,19 @@
       <c r="D280" s="4" t="s">
         <v>2246</v>
       </c>
-      <c r="E280" s="4" t="s">
+      <c r="E280" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="F280" s="7" t="s">
         <v>2246</v>
       </c>
-      <c r="G280" s="8" t="s">
+      <c r="G280" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="H280" s="4" t="s">
         <v>2246</v>
       </c>
-      <c r="I280" s="4" t="s">
+      <c r="I280" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="J280" s="4"/>
@@ -24747,8 +24767,8 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A281" s="9" t="s">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A281" s="8" t="s">
         <v>1218</v>
       </c>
       <c r="B281" s="2" t="s">
@@ -24757,19 +24777,19 @@
       <c r="D281" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="E281" s="4" t="s">
+      <c r="E281" s="10" t="s">
         <v>1219</v>
       </c>
       <c r="F281" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="G281" s="8" t="s">
+      <c r="G281" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="H281" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="I281" s="4" t="s">
+      <c r="I281" s="10" t="s">
         <v>1220</v>
       </c>
       <c r="J281" s="4"/>
